--- a/Excel/DCF NVDA 01.09.24.xlsx
+++ b/Excel/DCF NVDA 01.09.24.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Finance-Portfolio/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0E9AAE-DE9C-A545-9918-FAAFA7C0695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C03ADD7-25E2-2D40-80E5-3D791F5DB4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="17240" windowHeight="19380" xr2:uid="{0DBC7CBB-1BA4-E74A-ACDB-390B09A12D21}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="18680" windowHeight="19420" xr2:uid="{0DBC7CBB-1BA4-E74A-ACDB-390B09A12D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Income Statement" sheetId="6" r:id="rId2"/>
-    <sheet name="Balance Sheet" sheetId="7" r:id="rId3"/>
-    <sheet name="Cash Flow Statement" sheetId="9" r:id="rId4"/>
+    <sheet name="WACC" sheetId="10" r:id="rId2"/>
+    <sheet name="Income Statement" sheetId="6" r:id="rId3"/>
+    <sheet name="Balance Sheet" sheetId="7" r:id="rId4"/>
+    <sheet name="Cash Flow Statement" sheetId="9" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1320">
   <si>
     <t>Revenue</t>
   </si>
@@ -3911,19 +3915,162 @@
   </si>
   <si>
     <t>DCF</t>
+  </si>
+  <si>
+    <t>% growth</t>
+  </si>
+  <si>
+    <t>conservative Case</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>% of EBIT</t>
+  </si>
+  <si>
+    <t>EBIAT</t>
+  </si>
+  <si>
+    <t>% of sale</t>
+  </si>
+  <si>
+    <t>Change in NWC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of sales </t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Present Value of FCF</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Discount Period</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>Present Value of Terminal Value</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>(+) Cash</t>
+  </si>
+  <si>
+    <t>(-) Debt</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Street Case</t>
+  </si>
+  <si>
+    <t>Optimistic Case</t>
+  </si>
+  <si>
+    <t>Conservative Case</t>
+  </si>
+  <si>
+    <t>WACC Calculations</t>
+  </si>
+  <si>
+    <t>US 10y</t>
+  </si>
+  <si>
+    <t>US 5Y</t>
+  </si>
+  <si>
+    <t>Risk Free Rate</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Market Risk Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Equity </t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash and Cash equivelants </t>
+  </si>
+  <si>
+    <t>total Debt</t>
+  </si>
+  <si>
+    <t>Value of Equity</t>
+  </si>
+  <si>
+    <t>Value of Debt</t>
+  </si>
+  <si>
+    <t>Cost of Debt</t>
+  </si>
+  <si>
+    <t>2016 A</t>
+  </si>
+  <si>
+    <t>2017 A</t>
+  </si>
+  <si>
+    <t>2018 A</t>
+  </si>
+  <si>
+    <t>2019 A</t>
+  </si>
+  <si>
+    <t>2020 A</t>
+  </si>
+  <si>
+    <t>2021 A</t>
+  </si>
+  <si>
+    <t>2022 A</t>
+  </si>
+  <si>
+    <t>2023 A</t>
+  </si>
+  <si>
+    <t>2024 A</t>
+  </si>
+  <si>
+    <t>26-29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3976,8 +4123,36 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4002,11 +4177,140 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -4021,7 +4325,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4033,13 +4337,55 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4059,6 +4405,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Statement Model"/>
+      <sheetName val="DCF"/>
+      <sheetName val="Income Statement"/>
+      <sheetName val="Balance Sheet"/>
+      <sheetName val="Cash Flow Statement"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2">
+            <v>3449100000</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>51463200000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4378,16 +4759,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BE7BB4-D47D-1A46-AE97-BC46A7EBDBD5}">
-  <dimension ref="B2:S44"/>
+  <dimension ref="B2:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G4" zoomScale="93" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="15" width="10.6640625" customWidth="1"/>
+    <col min="2" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="18" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -4480,7 +4862,7 @@
       <c r="H11" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="45" t="s">
         <v>1269</v>
       </c>
       <c r="J11" s="2"/>
@@ -4488,10 +4870,10 @@
         <v>7</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="45" t="s">
         <v>1268</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="45" t="s">
         <v>1269</v>
       </c>
       <c r="O11" s="2"/>
@@ -4499,10 +4881,10 @@
         <v>7</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="45" t="s">
         <v>1268</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="45" t="s">
         <v>1269</v>
       </c>
     </row>
@@ -4510,34 +4892,71 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="46"/>
       <c r="K12" t="s">
         <v>0</v>
       </c>
+      <c r="M12" s="46">
+        <v>2025</v>
+      </c>
+      <c r="N12" s="47">
+        <v>0.1</v>
+      </c>
       <c r="P12" t="s">
         <v>0</v>
+      </c>
+      <c r="R12" s="46">
+        <v>2025</v>
+      </c>
+      <c r="S12" s="47">
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
+      <c r="H13" s="46" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I13" s="47">
+        <v>-0.1</v>
+      </c>
       <c r="K13" t="s">
         <v>0</v>
       </c>
+      <c r="M13" s="46" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N13" s="47">
+        <v>-0.1</v>
+      </c>
       <c r="P13" t="s">
         <v>0</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>1319</v>
+      </c>
+      <c r="S13" s="47">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>1265</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
@@ -4552,6 +4971,9 @@
       <c r="B15" t="s">
         <v>1266</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
@@ -4595,658 +5017,1652 @@
         <v>1266</v>
       </c>
     </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="42" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>1317</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2025</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2026</v>
+      </c>
+      <c r="P23" s="4">
+        <v>2027</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>2028</v>
+      </c>
+      <c r="R23" s="4">
+        <v>2029</v>
+      </c>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="41">
+        <f>'Income Statement'!T3</f>
+        <v>5010</v>
+      </c>
+      <c r="F24" s="41">
+        <f>'Income Statement'!U3</f>
+        <v>6910</v>
+      </c>
+      <c r="G24" s="41">
+        <f>'Income Statement'!V3</f>
+        <v>9714</v>
+      </c>
+      <c r="H24" s="41">
+        <f>'Income Statement'!W3</f>
+        <v>11716</v>
+      </c>
+      <c r="I24" s="41">
+        <f>'Income Statement'!X3</f>
+        <v>10918</v>
+      </c>
+      <c r="J24" s="41">
+        <f>'Income Statement'!Y3</f>
+        <v>16675</v>
+      </c>
+      <c r="K24" s="41">
+        <f>'Income Statement'!Z3</f>
+        <v>26914</v>
+      </c>
+      <c r="L24" s="41">
+        <f>'Income Statement'!AA3</f>
+        <v>26974</v>
+      </c>
+      <c r="M24" s="41">
+        <f>'Income Statement'!AB3</f>
+        <v>60922</v>
+      </c>
+      <c r="N24" s="13">
+        <f>M24*(1+N25)</f>
+        <v>121844</v>
+      </c>
+      <c r="O24" s="13">
+        <f>N24*(1+O25)</f>
+        <v>170581.59999999998</v>
+      </c>
+      <c r="P24" s="13">
+        <f>O24*(1+P25)</f>
+        <v>221756.08</v>
+      </c>
+      <c r="Q24" s="13">
+        <f>P24*(1+Q25)</f>
+        <v>277195.09999999998</v>
+      </c>
+      <c r="R24" s="13">
+        <f>Q24*(1+R25)</f>
+        <v>346493.875</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="7">
+        <f>(E24-'Income Statement'!S3)/'Income Statement'!S3</f>
+        <v>7.0055531824006839E-2</v>
+      </c>
+      <c r="F25" s="7">
+        <f>(F24-E24)/E24</f>
+        <v>0.37924151696606784</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" ref="G25:L25" si="0">(G24-F24)/F24</f>
+        <v>0.4057887120115774</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.20609429689108502</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="0"/>
+        <v>-6.8111983612154314E-2</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.52729437625938813</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.61403298350824587</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="0"/>
+        <v>2.2293230289068887E-3</v>
+      </c>
+      <c r="M25" s="7">
+        <f>(M24-L24)/L24</f>
+        <v>1.2585452658115222</v>
+      </c>
+      <c r="N25" s="14">
+        <v>1</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0.25</v>
+      </c>
+    </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G26" s="4">
-        <v>2018</v>
-      </c>
-      <c r="H26" s="4">
-        <v>2019</v>
-      </c>
-      <c r="I26" s="4">
-        <v>2020</v>
-      </c>
-      <c r="J26" s="4">
-        <v>2021</v>
-      </c>
-      <c r="K26" s="4">
-        <v>2022</v>
-      </c>
-      <c r="L26" s="4">
-        <v>2023</v>
-      </c>
-      <c r="M26" s="4">
-        <v>2024</v>
-      </c>
-      <c r="N26" s="4">
-        <v>2025</v>
-      </c>
-      <c r="O26" s="4">
-        <v>2026</v>
-      </c>
-      <c r="P26" s="4">
-        <v>2027</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>2028</v>
-      </c>
-      <c r="R26" s="4">
-        <v>2029</v>
-      </c>
-      <c r="S26" s="4"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <f>'Income Statement'!T3</f>
-        <v>5010</v>
-      </c>
-      <c r="F27" s="12">
-        <f>'Income Statement'!U3</f>
-        <v>6910</v>
-      </c>
-      <c r="G27" s="12">
-        <f>'Income Statement'!V3</f>
-        <v>9714</v>
-      </c>
-      <c r="H27" s="12">
-        <f>'Income Statement'!W3</f>
-        <v>11716</v>
-      </c>
-      <c r="I27" s="12">
-        <f>'Income Statement'!X3</f>
-        <v>10918</v>
-      </c>
-      <c r="J27" s="12">
-        <f>'Income Statement'!Y3</f>
-        <v>16675</v>
-      </c>
-      <c r="K27" s="12">
-        <f>'Income Statement'!Z3</f>
-        <v>26914</v>
-      </c>
-      <c r="L27" s="12">
-        <f>'Income Statement'!AA3</f>
-        <v>26974</v>
-      </c>
-      <c r="M27" s="12">
-        <f>'Income Statement'!AB3</f>
-        <v>60922</v>
-      </c>
-      <c r="N27" s="15">
-        <f>M27*(1+N28)</f>
-        <v>121844</v>
-      </c>
-      <c r="O27" s="15">
-        <f>N27*(1+O28)</f>
-        <v>170581.59999999998</v>
-      </c>
-      <c r="P27" s="15">
-        <f>O27*(1+P28)</f>
-        <v>221756.08</v>
-      </c>
-      <c r="Q27" s="15">
-        <f>P27*(1+Q28)</f>
-        <v>277195.09999999998</v>
-      </c>
-      <c r="R27" s="15">
-        <f>Q27*(1+R28)</f>
-        <v>346493.875</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E27" s="41">
+        <f>'Income Statement'!T10</f>
+        <v>747</v>
+      </c>
+      <c r="F27" s="41">
+        <f>'Income Statement'!U10</f>
+        <v>1934</v>
+      </c>
+      <c r="G27" s="41">
+        <f>'Income Statement'!V10</f>
+        <v>3210</v>
+      </c>
+      <c r="H27" s="41">
+        <f>'Income Statement'!W10</f>
+        <v>3804</v>
+      </c>
+      <c r="I27" s="41">
+        <f>'Income Statement'!X10</f>
+        <v>2846</v>
+      </c>
+      <c r="J27" s="41">
+        <f>'Income Statement'!Y10</f>
+        <v>4532</v>
+      </c>
+      <c r="K27" s="41">
+        <f>'Income Statement'!Z10</f>
+        <v>10041</v>
+      </c>
+      <c r="L27" s="41">
+        <f>'Income Statement'!AA10</f>
+        <v>4224</v>
+      </c>
+      <c r="M27" s="41">
+        <f>'Income Statement'!AB10</f>
+        <v>32972</v>
+      </c>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E28" s="7">
-        <f>(E27-'Income Statement'!S3)/'Income Statement'!S3</f>
-        <v>7.0055531824006839E-2</v>
+        <f>E27/E24</f>
+        <v>0.14910179640718563</v>
       </c>
       <c r="F28" s="7">
-        <f>(F27-E27)/E27</f>
-        <v>0.37924151696606784</v>
+        <f t="shared" ref="F28:M28" si="1">F27/F24</f>
+        <v>0.27988422575976846</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" ref="G28:M28" si="0">(G27-F27)/F27</f>
-        <v>0.4057887120115774</v>
+        <f t="shared" si="1"/>
+        <v>0.33045089561457691</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
-        <v>0.20609429689108502</v>
+        <f t="shared" si="1"/>
+        <v>0.32468419255718678</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.8111983612154314E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.2606704524638212</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="0"/>
-        <v>0.52729437625938813</v>
+        <f t="shared" si="1"/>
+        <v>0.27178410794602698</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="0"/>
-        <v>0.61403298350824587</v>
-      </c>
-      <c r="L28" s="14">
-        <f t="shared" si="0"/>
-        <v>2.2293230289068887E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.37307720888756779</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1565952398606065</v>
       </c>
       <c r="M28" s="7">
-        <f>(M27-L27)/L27</f>
-        <v>1.2585452658115222</v>
-      </c>
-      <c r="N28" s="16">
-        <v>1</v>
-      </c>
-      <c r="O28" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="P28" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="Q28" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="R28" s="16">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F29" s="8"/>
+        <f t="shared" si="1"/>
+        <v>0.54121663766783756</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="13">
-        <f>'Income Statement'!T10</f>
-        <v>747</v>
-      </c>
-      <c r="F30" s="13">
-        <f>'Income Statement'!U10</f>
-        <v>1934</v>
-      </c>
-      <c r="G30" s="13">
-        <f>'Income Statement'!V10</f>
-        <v>3210</v>
-      </c>
-      <c r="H30" s="13">
-        <f>'Income Statement'!W10</f>
-        <v>3804</v>
-      </c>
-      <c r="I30" s="13">
-        <f>'Income Statement'!X10</f>
-        <v>2846</v>
-      </c>
-      <c r="J30" s="13">
-        <f>'Income Statement'!Y10</f>
-        <v>4532</v>
-      </c>
-      <c r="K30" s="13">
-        <f>'Income Statement'!Z10</f>
-        <v>10041</v>
-      </c>
-      <c r="L30" s="13">
-        <f>'Income Statement'!AA10</f>
-        <v>4224</v>
-      </c>
-      <c r="M30" s="13">
-        <f>'Income Statement'!AB10</f>
-        <v>32972</v>
-      </c>
-      <c r="N30" s="13"/>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="42" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L30" s="42" t="s">
+        <v>1317</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2025</v>
+      </c>
+      <c r="O30" s="4">
+        <v>2026</v>
+      </c>
+      <c r="P30" s="4">
+        <v>2027</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>2028</v>
+      </c>
+      <c r="R30" s="4">
+        <v>2029</v>
+      </c>
+      <c r="S30" s="4"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="7">
-        <f>E30/E27</f>
-        <v>0.14910179640718563</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" ref="F31:M31" si="1">F30/F27</f>
-        <v>0.27988422575976846</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" si="1"/>
-        <v>0.33045089561457691</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" si="1"/>
-        <v>0.32468419255718678</v>
-      </c>
-      <c r="I31" s="7">
-        <f t="shared" si="1"/>
-        <v>0.2606704524638212</v>
-      </c>
-      <c r="J31" s="7">
-        <f t="shared" si="1"/>
-        <v>0.27178410794602698</v>
-      </c>
-      <c r="K31" s="7">
-        <f t="shared" si="1"/>
-        <v>0.37307720888756779</v>
-      </c>
-      <c r="L31" s="7">
-        <f t="shared" si="1"/>
-        <v>0.1565952398606065</v>
-      </c>
-      <c r="M31" s="7">
-        <f t="shared" si="1"/>
-        <v>0.54121663766783756</v>
-      </c>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G33" s="4">
-        <v>2018</v>
-      </c>
-      <c r="H33" s="4">
-        <v>2019</v>
-      </c>
-      <c r="I33" s="4">
-        <v>2020</v>
-      </c>
-      <c r="J33" s="4">
-        <v>2021</v>
-      </c>
-      <c r="K33" s="4">
-        <v>2022</v>
-      </c>
-      <c r="L33" s="4">
-        <v>2023</v>
-      </c>
-      <c r="M33" s="4">
-        <v>2024</v>
-      </c>
-      <c r="N33" s="4">
-        <v>2025</v>
-      </c>
-      <c r="O33" s="4">
-        <v>2026</v>
-      </c>
-      <c r="P33" s="4">
-        <v>2027</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>2028</v>
-      </c>
-      <c r="R33" s="4">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E31" s="41">
         <f>'Cash Flow Statement'!T5</f>
         <v>197</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F31" s="41">
         <f>'Cash Flow Statement'!U5</f>
         <v>187</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G31" s="41">
         <f>'Cash Flow Statement'!V5</f>
         <v>199</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H31" s="41">
         <f>'Cash Flow Statement'!W5</f>
         <v>262</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I31" s="41">
         <f>'Cash Flow Statement'!X5</f>
         <v>381</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J31" s="41">
         <f>'Cash Flow Statement'!Y5</f>
         <v>1098</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K31" s="41">
         <f>'Cash Flow Statement'!Z5</f>
         <v>1174</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L31" s="41">
         <f>'Cash Flow Statement'!AA5</f>
         <v>1544</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M31" s="41">
         <f>'Cash Flow Statement'!AB5</f>
         <v>1508</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7">
+        <f>E31/E24</f>
+        <v>3.932135728542914E-2</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" ref="F32:M32" si="2">F31/F24</f>
+        <v>2.7062228654124457E-2</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="2"/>
+        <v>2.0485896644018942E-2</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2362581085694777E-2</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="2"/>
+        <v>3.4896501190694269E-2</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="2"/>
+        <v>6.5847076461769113E-2</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="2"/>
+        <v>4.362042059894479E-2</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>5.7240305479350488E-2</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4752962804898065E-2</v>
+      </c>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="41">
+        <f>-'Cash Flow Statement'!T33</f>
+        <v>86</v>
+      </c>
+      <c r="F34" s="41">
+        <f>-'Cash Flow Statement'!U33</f>
+        <v>176</v>
+      </c>
+      <c r="G34" s="41">
+        <f>-'Cash Flow Statement'!V33</f>
+        <v>593</v>
+      </c>
+      <c r="H34" s="41">
+        <f>-'Cash Flow Statement'!W33</f>
+        <v>600</v>
+      </c>
+      <c r="I34" s="41">
+        <f>-'Cash Flow Statement'!X33</f>
+        <v>489</v>
+      </c>
+      <c r="J34" s="41">
+        <f>-'Cash Flow Statement'!Y33</f>
+        <v>1128</v>
+      </c>
+      <c r="K34" s="41">
+        <f>-'Cash Flow Statement'!Z33</f>
+        <v>976</v>
+      </c>
+      <c r="L34" s="41">
+        <f>-'Cash Flow Statement'!AA33</f>
+        <v>1833</v>
+      </c>
+      <c r="M34" s="41">
+        <f>-'Cash Flow Statement'!AB33</f>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="7"/>
       <c r="E35" s="7">
-        <f>E34/E27</f>
-        <v>3.932135728542914E-2</v>
+        <f>E34/E24</f>
+        <v>1.716566866267465E-2</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" ref="F35:M35" si="2">F34/F27</f>
-        <v>2.7062228654124457E-2</v>
+        <f t="shared" ref="F35:M35" si="3">F34/F24</f>
+        <v>2.5470332850940667E-2</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="2"/>
-        <v>2.0485896644018942E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.1045913115091617E-2</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="2"/>
-        <v>2.2362581085694777E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.1212017753499491E-2</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="2"/>
-        <v>3.4896501190694269E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.478842278805642E-2</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="2"/>
-        <v>6.5847076461769113E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.7646176911544231E-2</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="2"/>
-        <v>4.362042059894479E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.6263654603552055E-2</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="2"/>
-        <v>5.7240305479350488E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.7954326388373995E-2</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="2"/>
-        <v>2.4752962804898065E-2</v>
-      </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>1.7547027346442992E-2</v>
+      </c>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37">
-        <f>-'Cash Flow Statement'!T33</f>
-        <v>86</v>
-      </c>
-      <c r="F37">
-        <f>-'Cash Flow Statement'!U33</f>
-        <v>176</v>
-      </c>
-      <c r="G37">
-        <f>-'Cash Flow Statement'!V33</f>
-        <v>593</v>
-      </c>
-      <c r="H37">
-        <f>-'Cash Flow Statement'!W33</f>
-        <v>600</v>
-      </c>
-      <c r="I37">
-        <f>-'Cash Flow Statement'!X33</f>
-        <v>489</v>
-      </c>
-      <c r="J37">
-        <f>-'Cash Flow Statement'!Y33</f>
-        <v>1128</v>
-      </c>
-      <c r="K37">
-        <f>-'Cash Flow Statement'!Z33</f>
-        <v>976</v>
-      </c>
-      <c r="L37">
-        <f>-'Cash Flow Statement'!AA33</f>
-        <v>1833</v>
-      </c>
-      <c r="M37">
-        <f>-'Cash Flow Statement'!AB33</f>
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+        <v>1270</v>
+      </c>
+      <c r="E37" s="41">
+        <f>-'Cash Flow Statement'!T9</f>
+        <v>51</v>
+      </c>
+      <c r="F37" s="41">
+        <f>-'Cash Flow Statement'!U9</f>
+        <v>679</v>
+      </c>
+      <c r="G37" s="41">
+        <f>-'Cash Flow Statement'!V9</f>
+        <v>-185</v>
+      </c>
+      <c r="H37" s="41">
+        <f>-'Cash Flow Statement'!W9</f>
+        <v>857</v>
+      </c>
+      <c r="I37" s="41">
+        <f>-'Cash Flow Statement'!X9</f>
+        <v>-717</v>
+      </c>
+      <c r="J37" s="41">
+        <f>-'Cash Flow Statement'!Y9</f>
+        <v>703</v>
+      </c>
+      <c r="K37" s="41">
+        <f>-'Cash Flow Statement'!Z9</f>
+        <v>3363</v>
+      </c>
+      <c r="L37" s="41">
+        <f>-'Cash Flow Statement'!AA9</f>
+        <v>2207</v>
+      </c>
+      <c r="M37" s="41">
+        <f>-'Cash Flow Statement'!AB9</f>
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="7">
-        <f>E37/E27</f>
-        <v>1.716566866267465E-2</v>
+        <f>E37/E24</f>
+        <v>1.0179640718562874E-2</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" ref="F38:M38" si="3">F37/F27</f>
-        <v>2.5470332850940667E-2</v>
+        <f t="shared" ref="F38:M38" si="4">F37/F24</f>
+        <v>9.8263386396526778E-2</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="3"/>
-        <v>6.1045913115091617E-2</v>
-      </c>
-      <c r="H38" s="7">
-        <f t="shared" si="3"/>
-        <v>5.1212017753499491E-2</v>
-      </c>
-      <c r="I38" s="7">
-        <f t="shared" si="3"/>
-        <v>4.478842278805642E-2</v>
-      </c>
-      <c r="J38" s="7">
-        <f t="shared" si="3"/>
-        <v>6.7646176911544231E-2</v>
-      </c>
-      <c r="K38" s="7">
-        <f t="shared" si="3"/>
-        <v>3.6263654603552055E-2</v>
-      </c>
-      <c r="L38" s="7">
-        <f t="shared" si="3"/>
-        <v>6.7954326388373995E-2</v>
-      </c>
-      <c r="M38" s="7">
-        <f t="shared" si="3"/>
-        <v>1.7547027346442992E-2</v>
-      </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E40">
-        <f>-'Cash Flow Statement'!T9</f>
-        <v>51</v>
-      </c>
-      <c r="F40">
-        <f>-'Cash Flow Statement'!U9</f>
-        <v>679</v>
-      </c>
-      <c r="G40">
-        <f>-'Cash Flow Statement'!V9</f>
-        <v>-185</v>
-      </c>
-      <c r="H40">
-        <f>-'Cash Flow Statement'!W9</f>
-        <v>857</v>
-      </c>
-      <c r="I40">
-        <f>-'Cash Flow Statement'!X9</f>
-        <v>-717</v>
-      </c>
-      <c r="J40">
-        <f>-'Cash Flow Statement'!Y9</f>
-        <v>703</v>
-      </c>
-      <c r="K40">
-        <f>-'Cash Flow Statement'!Z9</f>
-        <v>3363</v>
-      </c>
-      <c r="L40">
-        <f>-'Cash Flow Statement'!AA9</f>
-        <v>2207</v>
-      </c>
-      <c r="M40">
-        <f>-'Cash Flow Statement'!AB9</f>
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="7">
-        <f>E40/E27</f>
-        <v>1.0179640718562874E-2</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" ref="F41:M41" si="4">F40/F27</f>
-        <v>9.8263386396526778E-2</v>
-      </c>
-      <c r="G41" s="7">
         <f t="shared" si="4"/>
         <v>-1.9044677784640723E-2</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H38" s="7">
         <f t="shared" si="4"/>
         <v>7.3147832024581763E-2</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I38" s="7">
         <f t="shared" si="4"/>
         <v>-6.5671368382487633E-2</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J38" s="7">
         <f t="shared" si="4"/>
         <v>4.2158920539730138E-2</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K38" s="7">
         <f t="shared" si="4"/>
         <v>0.12495355577023111</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L38" s="7">
         <f t="shared" si="4"/>
         <v>8.181952991769853E-2</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M38" s="7">
         <f t="shared" si="4"/>
         <v>6.1094514296969896E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>1271</v>
       </c>
-      <c r="E42" s="7">
-        <f>E40/(E27-D27)</f>
+      <c r="E39" s="7">
+        <f>E37/(E24-D24)</f>
         <v>1.0179640718562874E-2</v>
       </c>
-      <c r="F42" s="7">
-        <f t="shared" ref="F42:M42" si="5">F40/(F27-E27)</f>
+      <c r="F39" s="7">
+        <f t="shared" ref="F39:M39" si="5">F37/(F24-E24)</f>
         <v>0.35736842105263156</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G39" s="7">
         <f t="shared" si="5"/>
         <v>-6.5977175463623389E-2</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H39" s="7">
         <f t="shared" si="5"/>
         <v>0.42807192807192807</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I39" s="7">
         <f t="shared" si="5"/>
         <v>0.89849624060150379</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J39" s="7">
         <f t="shared" si="5"/>
         <v>0.12211221122112212</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K39" s="7">
         <f t="shared" si="5"/>
         <v>0.32845004394960448</v>
       </c>
-      <c r="L42" s="7">
-        <f>L40/(L27-K27)</f>
+      <c r="L39" s="7">
+        <f>L37/(L24-K24)</f>
         <v>36.783333333333331</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M39" s="7">
         <f t="shared" si="5"/>
         <v>0.10963827029574644</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F44" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G44" s="4">
-        <v>2018</v>
-      </c>
-      <c r="H44" s="4">
-        <v>2019</v>
-      </c>
-      <c r="I44" s="4">
-        <v>2020</v>
-      </c>
-      <c r="J44" s="4">
-        <v>2021</v>
-      </c>
-      <c r="K44" s="4">
-        <v>2022</v>
-      </c>
-      <c r="L44" s="4">
-        <v>2023</v>
-      </c>
-      <c r="M44" s="4">
-        <v>2024</v>
-      </c>
-      <c r="N44" s="4">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="42" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I42" s="42" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J42" s="42" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K42" s="42" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L42" s="42" t="s">
+        <v>1317</v>
+      </c>
+      <c r="M42" s="42" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N42" s="4">
         <v>2025</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O42" s="4">
         <v>2026</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P42" s="4">
         <v>2027</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q42" s="4">
         <v>2028</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R42" s="4">
         <v>2029</v>
+      </c>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="41">
+        <f>E24</f>
+        <v>5010</v>
+      </c>
+      <c r="F43" s="41">
+        <f t="shared" ref="F43:M43" si="6">F24</f>
+        <v>6910</v>
+      </c>
+      <c r="G43" s="41">
+        <f t="shared" si="6"/>
+        <v>9714</v>
+      </c>
+      <c r="H43" s="41">
+        <f t="shared" si="6"/>
+        <v>11716</v>
+      </c>
+      <c r="I43" s="41">
+        <f t="shared" si="6"/>
+        <v>10918</v>
+      </c>
+      <c r="J43" s="41">
+        <f t="shared" si="6"/>
+        <v>16675</v>
+      </c>
+      <c r="K43" s="41">
+        <f t="shared" si="6"/>
+        <v>26914</v>
+      </c>
+      <c r="L43" s="41">
+        <f t="shared" si="6"/>
+        <v>26974</v>
+      </c>
+      <c r="M43" s="41">
+        <f t="shared" si="6"/>
+        <v>60922</v>
+      </c>
+      <c r="N43" s="16">
+        <f ca="1">M43*(1+N44)</f>
+        <v>127936.20000000001</v>
+      </c>
+      <c r="O43" s="16">
+        <f t="shared" ref="O43:R43" ca="1" si="7">N43*(1+O44)</f>
+        <v>184228.128</v>
+      </c>
+      <c r="P43" s="16">
+        <f t="shared" ca="1" si="7"/>
+        <v>245023.41024</v>
+      </c>
+      <c r="Q43" s="16">
+        <f t="shared" ca="1" si="7"/>
+        <v>312404.84805599996</v>
+      </c>
+      <c r="R43" s="16">
+        <f t="shared" ca="1" si="7"/>
+        <v>398316.1812713999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E44" s="7">
+        <f>(E43-'Income Statement'!S3)/'Income Statement'!S3</f>
+        <v>7.0055531824006839E-2</v>
+      </c>
+      <c r="F44" s="7">
+        <f>(F43-E43)/E43</f>
+        <v>0.37924151696606784</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" ref="G44" si="8">(G43-F43)/F43</f>
+        <v>0.4057887120115774</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" ref="H44" si="9">(H43-G43)/G43</f>
+        <v>0.20609429689108502</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" ref="I44" si="10">(I43-H43)/H43</f>
+        <v>-6.8111983612154314E-2</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" ref="J44" si="11">(J43-I43)/I43</f>
+        <v>0.52729437625938813</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" ref="K44" si="12">(K43-J43)/J43</f>
+        <v>0.61403298350824587</v>
+      </c>
+      <c r="L44" s="12">
+        <f t="shared" ref="L44" si="13">(L43-K43)/K43</f>
+        <v>2.2293230289068887E-3</v>
+      </c>
+      <c r="M44" s="7">
+        <f>(M43-L43)/L43</f>
+        <v>1.2585452658115222</v>
+      </c>
+      <c r="N44" s="7">
+        <f ca="1">OFFSET(N44,$D12,0)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O44" s="7">
+        <f t="shared" ref="O44:R44" ca="1" si="14">OFFSET(O44,$D12,0)</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="P44" s="7">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.33</v>
+      </c>
+      <c r="Q44" s="7">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R44" s="7">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>1295</v>
+      </c>
+      <c r="N45" s="14">
+        <f>N25</f>
+        <v>1</v>
+      </c>
+      <c r="O45" s="14">
+        <f t="shared" ref="O45:R45" si="15">O25</f>
+        <v>0.4</v>
+      </c>
+      <c r="P45" s="14">
+        <f t="shared" si="15"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q45" s="14">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="R45" s="14">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N46" s="43">
+        <f>N45*(1+$N$12)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O46" s="43">
+        <f t="shared" ref="O46:R46" si="16">O45*(1+$N$12)</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="P46" s="43">
+        <f t="shared" si="16"/>
+        <v>0.33</v>
+      </c>
+      <c r="Q46" s="43">
+        <f t="shared" si="16"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R46" s="43">
+        <f t="shared" si="16"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>1294</v>
+      </c>
+      <c r="N47" s="44">
+        <f>N45*(1+$S$12)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O47" s="44">
+        <f t="shared" ref="O47:R47" si="17">O45*(1+$S$12)</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="P47" s="44">
+        <f t="shared" si="17"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="Q47" s="44">
+        <f t="shared" si="17"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="R47" s="44">
+        <f t="shared" si="17"/>
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="41">
+        <f>E27</f>
+        <v>747</v>
+      </c>
+      <c r="F49" s="41">
+        <f t="shared" ref="F49:M49" si="18">F27</f>
+        <v>1934</v>
+      </c>
+      <c r="G49" s="41">
+        <f t="shared" si="18"/>
+        <v>3210</v>
+      </c>
+      <c r="H49" s="41">
+        <f t="shared" si="18"/>
+        <v>3804</v>
+      </c>
+      <c r="I49" s="41">
+        <f t="shared" si="18"/>
+        <v>2846</v>
+      </c>
+      <c r="J49" s="41">
+        <f t="shared" si="18"/>
+        <v>4532</v>
+      </c>
+      <c r="K49" s="41">
+        <f t="shared" si="18"/>
+        <v>10041</v>
+      </c>
+      <c r="L49" s="41">
+        <f t="shared" si="18"/>
+        <v>4224</v>
+      </c>
+      <c r="M49" s="41">
+        <f t="shared" si="18"/>
+        <v>32972</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="7">
+        <f>E49/E24</f>
+        <v>0.14910179640718563</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" ref="F50:M50" si="19">F49/F24</f>
+        <v>0.27988422575976846</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="19"/>
+        <v>0.33045089561457691</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="19"/>
+        <v>0.32468419255718678</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="19"/>
+        <v>0.2606704524638212</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="19"/>
+        <v>0.27178410794602698</v>
+      </c>
+      <c r="K50" s="7">
+        <f t="shared" si="19"/>
+        <v>0.37307720888756779</v>
+      </c>
+      <c r="L50" s="7">
+        <f t="shared" si="19"/>
+        <v>0.1565952398606065</v>
+      </c>
+      <c r="M50" s="7">
+        <f t="shared" si="19"/>
+        <v>0.54121663766783756</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>1274</v>
+      </c>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>1276</v>
+      </c>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>1278</v>
+      </c>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="41">
+        <f>E31</f>
+        <v>197</v>
+      </c>
+      <c r="F60" s="41">
+        <f t="shared" ref="F60:M60" si="20">F31</f>
+        <v>187</v>
+      </c>
+      <c r="G60" s="41">
+        <f t="shared" si="20"/>
+        <v>199</v>
+      </c>
+      <c r="H60" s="41">
+        <f t="shared" si="20"/>
+        <v>262</v>
+      </c>
+      <c r="I60" s="41">
+        <f t="shared" si="20"/>
+        <v>381</v>
+      </c>
+      <c r="J60" s="41">
+        <f t="shared" si="20"/>
+        <v>1098</v>
+      </c>
+      <c r="K60" s="41">
+        <f t="shared" si="20"/>
+        <v>1174</v>
+      </c>
+      <c r="L60" s="41">
+        <f t="shared" si="20"/>
+        <v>1544</v>
+      </c>
+      <c r="M60" s="41">
+        <f t="shared" si="20"/>
+        <v>1508</v>
+      </c>
+      <c r="N60" s="13">
+        <v>1602</v>
+      </c>
+      <c r="O60" s="13">
+        <f t="shared" ref="O60:R60" si="21">O$24*O61</f>
+        <v>3411.6319999999996</v>
+      </c>
+      <c r="P60" s="13">
+        <f t="shared" si="21"/>
+        <v>4435.1215999999995</v>
+      </c>
+      <c r="Q60" s="13">
+        <f t="shared" si="21"/>
+        <v>5543.902</v>
+      </c>
+      <c r="R60" s="13">
+        <f t="shared" si="21"/>
+        <v>6929.8775000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E61" s="7">
+        <f>E60/E$24</f>
+        <v>3.932135728542914E-2</v>
+      </c>
+      <c r="F61" s="7">
+        <f t="shared" ref="F61:N61" si="22">F60/F$24</f>
+        <v>2.7062228654124457E-2</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="22"/>
+        <v>2.0485896644018942E-2</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" si="22"/>
+        <v>2.2362581085694777E-2</v>
+      </c>
+      <c r="I61" s="7">
+        <f t="shared" si="22"/>
+        <v>3.4896501190694269E-2</v>
+      </c>
+      <c r="J61" s="7">
+        <f t="shared" si="22"/>
+        <v>6.5847076461769113E-2</v>
+      </c>
+      <c r="K61" s="7">
+        <f t="shared" si="22"/>
+        <v>4.362042059894479E-2</v>
+      </c>
+      <c r="L61" s="7">
+        <f t="shared" si="22"/>
+        <v>5.7240305479350488E-2</v>
+      </c>
+      <c r="M61" s="7">
+        <f t="shared" si="22"/>
+        <v>2.4752962804898065E-2</v>
+      </c>
+      <c r="N61" s="40">
+        <f t="shared" si="22"/>
+        <v>1.3147959686156068E-2</v>
+      </c>
+      <c r="O61" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="P61" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="Q61" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="R61" s="40">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="41">
+        <f>E34</f>
+        <v>86</v>
+      </c>
+      <c r="F63" s="41">
+        <f t="shared" ref="F63:M63" si="23">F34</f>
+        <v>176</v>
+      </c>
+      <c r="G63" s="41">
+        <f t="shared" si="23"/>
+        <v>593</v>
+      </c>
+      <c r="H63" s="41">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+      <c r="I63" s="41">
+        <f t="shared" si="23"/>
+        <v>489</v>
+      </c>
+      <c r="J63" s="41">
+        <f t="shared" si="23"/>
+        <v>1128</v>
+      </c>
+      <c r="K63" s="41">
+        <f t="shared" si="23"/>
+        <v>976</v>
+      </c>
+      <c r="L63" s="41">
+        <f t="shared" si="23"/>
+        <v>1833</v>
+      </c>
+      <c r="M63" s="41">
+        <f t="shared" si="23"/>
+        <v>1069</v>
+      </c>
+      <c r="N63" s="13">
+        <v>1878</v>
+      </c>
+      <c r="O63" s="13">
+        <f t="shared" ref="O63" si="24">O$24*O64</f>
+        <v>3411.6319999999996</v>
+      </c>
+      <c r="P63" s="13">
+        <f t="shared" ref="P63" si="25">P$24*P64</f>
+        <v>4435.1215999999995</v>
+      </c>
+      <c r="Q63" s="13">
+        <f t="shared" ref="Q63" si="26">Q$24*Q64</f>
+        <v>5543.902</v>
+      </c>
+      <c r="R63" s="13">
+        <f t="shared" ref="R63" si="27">R$24*R64</f>
+        <v>6929.8775000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="7">
+        <f>E63/E$24</f>
+        <v>1.716566866267465E-2</v>
+      </c>
+      <c r="F64" s="7">
+        <f t="shared" ref="F64" si="28">F63/F$24</f>
+        <v>2.5470332850940667E-2</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" ref="G64" si="29">G63/G$24</f>
+        <v>6.1045913115091617E-2</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" ref="H64" si="30">H63/H$24</f>
+        <v>5.1212017753499491E-2</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" ref="I64" si="31">I63/I$24</f>
+        <v>4.478842278805642E-2</v>
+      </c>
+      <c r="J64" s="7">
+        <f>J63/J$24</f>
+        <v>6.7646176911544231E-2</v>
+      </c>
+      <c r="K64" s="7">
+        <f t="shared" ref="K64" si="32">K63/K$24</f>
+        <v>3.6263654603552055E-2</v>
+      </c>
+      <c r="L64" s="7">
+        <f t="shared" ref="L64" si="33">L63/L$24</f>
+        <v>6.7954326388373995E-2</v>
+      </c>
+      <c r="M64" s="7">
+        <f t="shared" ref="M64:N64" si="34">M63/M$24</f>
+        <v>1.7547027346442992E-2</v>
+      </c>
+      <c r="N64" s="40">
+        <f t="shared" si="34"/>
+        <v>1.5413151242572469E-2</v>
+      </c>
+      <c r="O64" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="P64" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="Q64" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="R64" s="40">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E66" s="41">
+        <f>E37</f>
+        <v>51</v>
+      </c>
+      <c r="F66" s="41">
+        <f t="shared" ref="F66:M66" si="35">F37</f>
+        <v>679</v>
+      </c>
+      <c r="G66" s="41">
+        <f t="shared" si="35"/>
+        <v>-185</v>
+      </c>
+      <c r="H66" s="41">
+        <f t="shared" si="35"/>
+        <v>857</v>
+      </c>
+      <c r="I66" s="41">
+        <f t="shared" si="35"/>
+        <v>-717</v>
+      </c>
+      <c r="J66" s="41">
+        <f t="shared" si="35"/>
+        <v>703</v>
+      </c>
+      <c r="K66" s="41">
+        <f t="shared" si="35"/>
+        <v>3363</v>
+      </c>
+      <c r="L66" s="41">
+        <f t="shared" si="35"/>
+        <v>2207</v>
+      </c>
+      <c r="M66" s="41">
+        <f t="shared" si="35"/>
+        <v>3722</v>
+      </c>
+      <c r="N66" s="13">
+        <f>N$24*N67</f>
+        <v>4873.76</v>
+      </c>
+      <c r="O66" s="13">
+        <f t="shared" ref="O66" si="36">O$24*O67</f>
+        <v>6823.2639999999992</v>
+      </c>
+      <c r="P66" s="13">
+        <f t="shared" ref="P66" si="37">P$24*P67</f>
+        <v>8870.243199999999</v>
+      </c>
+      <c r="Q66" s="13">
+        <f t="shared" ref="Q66" si="38">Q$24*Q67</f>
+        <v>11087.804</v>
+      </c>
+      <c r="R66" s="13">
+        <f t="shared" ref="R66" si="39">R$24*R67</f>
+        <v>13859.755000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E67" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="G67" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="H67" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="I67" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="J67" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K67" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="L67" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="M67" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="N67" s="40">
+        <v>0.04</v>
+      </c>
+      <c r="O67" s="40">
+        <v>0.04</v>
+      </c>
+      <c r="P67" s="40">
+        <v>0.04</v>
+      </c>
+      <c r="Q67" s="40">
+        <v>0.04</v>
+      </c>
+      <c r="R67" s="40">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B69" s="20" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="22" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+      <c r="R72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC84AC3F-8C96-B446-AEB7-D6596641F75A}">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="26" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D3" s="27">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D4" s="28">
+        <v>3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="26"/>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D6" s="27">
+        <f>AVERAGE(D3:D4)</f>
+        <v>3.7750000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D8" s="30">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="31">
+        <f>D6+D7*(D8)</f>
+        <v>7.6800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="26"/>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="26" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D12" s="33">
+        <v>3416000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D13" s="34">
+        <f>'[1]Balance Sheet'!B2</f>
+        <v>3449100000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="26" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D14" s="35">
+        <f>'[1]Balance Sheet'!B65</f>
+        <v>51463200000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="36">
+        <f>D12-D13+D14</f>
+        <v>3464014100000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="26"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="26" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D17" s="37">
+        <f>D14</f>
+        <v>51463200000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="26" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D18" s="38">
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="26"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="39">
+        <f>(D15/(D15+D17))*D9+(D17/(D15+D17))*D18*(1-D11)</f>
+        <v>7.6241886738964301E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5254,7 +6670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF67DDB-448F-FB4E-92E8-0ABA36E9F720}">
   <dimension ref="A1:AB24"/>
   <sheetViews>
@@ -7347,7 +8763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83958F25-49DD-4C4E-8E27-484D7D074E69}">
   <dimension ref="A1:AA39"/>
   <sheetViews>
@@ -10604,7 +12020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D30EA6C-7410-F047-B608-1512BDB4A412}">
   <dimension ref="A1:AB33"/>
   <sheetViews>

--- a/Excel/DCF NVDA 01.09.24.xlsx
+++ b/Excel/DCF NVDA 01.09.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Finance-Portfolio/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C03ADD7-25E2-2D40-80E5-3D791F5DB4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C535A51-CF7A-7C45-8BDE-3B6225BFEAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="18680" windowHeight="19420" xr2:uid="{0DBC7CBB-1BA4-E74A-ACDB-390B09A12D21}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19420" xr2:uid="{0DBC7CBB-1BA4-E74A-ACDB-390B09A12D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4759,10 +4759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BE7BB4-D47D-1A46-AE97-BC46A7EBDBD5}">
-  <dimension ref="B2:S80"/>
+  <dimension ref="B2:S81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G4" zoomScale="93" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="46"/>
       <c r="K12" t="s">
@@ -4903,7 +4903,7 @@
         <v>2025</v>
       </c>
       <c r="N12" s="47">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>1319</v>
       </c>
       <c r="I13" s="47">
-        <v>-0.1</v>
+        <v>-0.45</v>
       </c>
       <c r="K13" t="s">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>1319</v>
       </c>
       <c r="N13" s="47">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="P13" t="s">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>1319</v>
       </c>
       <c r="S13" s="47">
-        <v>-0.1</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
@@ -5109,23 +5109,23 @@
       </c>
       <c r="N24" s="13">
         <f>M24*(1+N25)</f>
-        <v>121844</v>
+        <v>115751.79999999999</v>
       </c>
       <c r="O24" s="13">
         <f>N24*(1+O25)</f>
-        <v>170581.59999999998</v>
+        <v>162052.51999999996</v>
       </c>
       <c r="P24" s="13">
         <f>O24*(1+P25)</f>
-        <v>221756.08</v>
+        <v>210668.27599999995</v>
       </c>
       <c r="Q24" s="13">
         <f>P24*(1+Q25)</f>
-        <v>277195.09999999998</v>
+        <v>263335.34499999997</v>
       </c>
       <c r="R24" s="13">
         <f>Q24*(1+R25)</f>
-        <v>346493.875</v>
+        <v>329169.18124999997</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
@@ -5169,7 +5169,7 @@
         <v>1.2585452658115222</v>
       </c>
       <c r="N25" s="14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O25" s="14">
         <v>0.4</v>
@@ -5635,364 +5635,365 @@
       <c r="M40" s="7"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="N41">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N42">
         <v>1</v>
       </c>
-      <c r="O41">
+      <c r="O42">
         <v>2</v>
       </c>
-      <c r="P41">
+      <c r="P42">
         <v>3</v>
       </c>
-      <c r="Q41">
+      <c r="Q42">
         <v>4</v>
       </c>
-      <c r="R41">
+      <c r="R42">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="42" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="42" t="s">
         <v>1310</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F43" s="42" t="s">
         <v>1311</v>
       </c>
-      <c r="G42" s="42" t="s">
+      <c r="G43" s="42" t="s">
         <v>1312</v>
       </c>
-      <c r="H42" s="42" t="s">
+      <c r="H43" s="42" t="s">
         <v>1313</v>
       </c>
-      <c r="I42" s="42" t="s">
+      <c r="I43" s="42" t="s">
         <v>1314</v>
       </c>
-      <c r="J42" s="42" t="s">
+      <c r="J43" s="42" t="s">
         <v>1315</v>
       </c>
-      <c r="K42" s="42" t="s">
+      <c r="K43" s="42" t="s">
         <v>1316</v>
       </c>
-      <c r="L42" s="42" t="s">
+      <c r="L43" s="42" t="s">
         <v>1317</v>
       </c>
-      <c r="M42" s="42" t="s">
+      <c r="M43" s="42" t="s">
         <v>1318</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N43" s="4">
         <v>2025</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O43" s="4">
         <v>2026</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P43" s="4">
         <v>2027</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q43" s="4">
         <v>2028</v>
       </c>
-      <c r="R42" s="4">
+      <c r="R43" s="4">
         <v>2029</v>
       </c>
-      <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E44" s="41">
         <f>E24</f>
         <v>5010</v>
       </c>
-      <c r="F43" s="41">
-        <f t="shared" ref="F43:M43" si="6">F24</f>
+      <c r="F44" s="41">
+        <f t="shared" ref="F44:M44" si="6">F24</f>
         <v>6910</v>
       </c>
-      <c r="G43" s="41">
+      <c r="G44" s="41">
         <f t="shared" si="6"/>
         <v>9714</v>
       </c>
-      <c r="H43" s="41">
+      <c r="H44" s="41">
         <f t="shared" si="6"/>
         <v>11716</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I44" s="41">
         <f t="shared" si="6"/>
         <v>10918</v>
       </c>
-      <c r="J43" s="41">
+      <c r="J44" s="41">
         <f t="shared" si="6"/>
         <v>16675</v>
       </c>
-      <c r="K43" s="41">
+      <c r="K44" s="41">
         <f t="shared" si="6"/>
         <v>26914</v>
       </c>
-      <c r="L43" s="41">
+      <c r="L44" s="41">
         <f t="shared" si="6"/>
         <v>26974</v>
       </c>
-      <c r="M43" s="41">
+      <c r="M44" s="41">
         <f t="shared" si="6"/>
         <v>60922</v>
       </c>
-      <c r="N43" s="16">
-        <f ca="1">M43*(1+N44)</f>
-        <v>127936.20000000001</v>
-      </c>
-      <c r="O43" s="16">
-        <f t="shared" ref="O43:R43" ca="1" si="7">N43*(1+O44)</f>
-        <v>184228.128</v>
-      </c>
-      <c r="P43" s="16">
+      <c r="N44" s="16">
+        <f ca="1">M44*(1+N45)</f>
+        <v>115751.79999999999</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" ref="O44:Q44" ca="1" si="7">N44*(1+O45)</f>
+        <v>173048.94099999999</v>
+      </c>
+      <c r="P44" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>245023.41024</v>
-      </c>
-      <c r="Q43" s="16">
+        <v>220161.51518725001</v>
+      </c>
+      <c r="Q44" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>312404.84805599996</v>
-      </c>
-      <c r="R43" s="16">
-        <f t="shared" ca="1" si="7"/>
-        <v>398316.1812713999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E44" s="7">
-        <f>(E43-'Income Statement'!S3)/'Income Statement'!S3</f>
-        <v>7.0055531824006839E-2</v>
-      </c>
-      <c r="F44" s="7">
-        <f>(F43-E43)/E43</f>
-        <v>0.37924151696606784</v>
-      </c>
-      <c r="G44" s="7">
-        <f t="shared" ref="G44" si="8">(G43-F43)/F43</f>
-        <v>0.4057887120115774</v>
-      </c>
-      <c r="H44" s="7">
-        <f t="shared" ref="H44" si="9">(H43-G43)/G43</f>
-        <v>0.20609429689108502</v>
-      </c>
-      <c r="I44" s="7">
-        <f t="shared" ref="I44" si="10">(I43-H43)/H43</f>
-        <v>-6.8111983612154314E-2</v>
-      </c>
-      <c r="J44" s="7">
-        <f t="shared" ref="J44" si="11">(J43-I43)/I43</f>
-        <v>0.52729437625938813</v>
-      </c>
-      <c r="K44" s="7">
-        <f t="shared" ref="K44" si="12">(K43-J43)/J43</f>
-        <v>0.61403298350824587</v>
-      </c>
-      <c r="L44" s="12">
-        <f t="shared" ref="L44" si="13">(L43-K43)/K43</f>
-        <v>2.2293230289068887E-3</v>
-      </c>
-      <c r="M44" s="7">
-        <f>(M43-L43)/L43</f>
-        <v>1.2585452658115222</v>
-      </c>
-      <c r="N44" s="7">
-        <f ca="1">OFFSET(N44,$D12,0)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O44" s="7">
-        <f t="shared" ref="O44:R44" ca="1" si="14">OFFSET(O44,$D12,0)</f>
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="P44" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.33</v>
-      </c>
-      <c r="Q44" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="R44" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.27500000000000002</v>
+        <v>253127.95006760088</v>
+      </c>
+      <c r="R44" s="16">
+        <f ca="1">Q44*(1+R45)</f>
+        <v>273974.4606003869</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>1295</v>
-      </c>
-      <c r="N45" s="14">
-        <f>N25</f>
-        <v>1</v>
-      </c>
-      <c r="O45" s="14">
-        <f t="shared" ref="O45:R45" si="15">O25</f>
-        <v>0.4</v>
-      </c>
-      <c r="P45" s="14">
-        <f t="shared" si="15"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q45" s="14">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
-      </c>
-      <c r="R45" s="14">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
+        <v>1273</v>
+      </c>
+      <c r="E45" s="7">
+        <f>(E44-'Income Statement'!S3)/'Income Statement'!S3</f>
+        <v>7.0055531824006839E-2</v>
+      </c>
+      <c r="F45" s="7">
+        <f>(F44-E44)/E44</f>
+        <v>0.37924151696606784</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" ref="G45" si="8">(G44-F44)/F44</f>
+        <v>0.4057887120115774</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" ref="H45" si="9">(H44-G44)/G44</f>
+        <v>0.20609429689108502</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" ref="I45" si="10">(I44-H44)/H44</f>
+        <v>-6.8111983612154314E-2</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" ref="J45" si="11">(J44-I44)/I44</f>
+        <v>0.52729437625938813</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" ref="K45" si="12">(K44-J44)/J44</f>
+        <v>0.61403298350824587</v>
+      </c>
+      <c r="L45" s="12">
+        <f t="shared" ref="L45" si="13">(L44-K44)/K44</f>
+        <v>2.2293230289068887E-3</v>
+      </c>
+      <c r="M45" s="7">
+        <f>(M44-L44)/L44</f>
+        <v>1.2585452658115222</v>
+      </c>
+      <c r="N45" s="7">
+        <f ca="1">OFFSET(N45,$D12,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="O45" s="7">
+        <f ca="1">OFFSET(O45,$D12,0)</f>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="P45" s="7">
+        <f ca="1">OFFSET(P45,$D12,0)</f>
+        <v>0.27225000000000005</v>
+      </c>
+      <c r="Q45" s="7">
+        <f ca="1">OFFSET(Q45,$D12,0)</f>
+        <v>0.14973750000000005</v>
+      </c>
+      <c r="R45" s="7">
+        <f ca="1">OFFSET(R45,$D12,0)</f>
+        <v>8.235562500000003E-2</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>1293</v>
-      </c>
-      <c r="N46" s="43">
-        <f>N45*(1+$N$12)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O46" s="43">
-        <f t="shared" ref="O46:R46" si="16">O45*(1+$N$12)</f>
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="P46" s="43">
-        <f t="shared" si="16"/>
-        <v>0.33</v>
-      </c>
-      <c r="Q46" s="43">
-        <f t="shared" si="16"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="R46" s="43">
-        <f t="shared" si="16"/>
-        <v>0.27500000000000002</v>
+        <v>1295</v>
+      </c>
+      <c r="N46" s="14">
+        <f>N25</f>
+        <v>0.9</v>
+      </c>
+      <c r="O46" s="14">
+        <f>N46*(1+$I$13)</f>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="P46" s="14">
+        <f t="shared" ref="P46:R46" si="14">O46*(1+$I$13)</f>
+        <v>0.27225000000000005</v>
+      </c>
+      <c r="Q46" s="14">
+        <f t="shared" si="14"/>
+        <v>0.14973750000000005</v>
+      </c>
+      <c r="R46" s="14">
+        <f t="shared" si="14"/>
+        <v>8.235562500000003E-2</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N47" s="43">
+        <f>N46*(1+$N$12)</f>
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="O47" s="43">
+        <f>N47*(1+$N$13)</f>
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="P47" s="43">
+        <f t="shared" ref="P47:R47" si="15">O47*(1+$N$13)</f>
+        <v>0.3483</v>
+      </c>
+      <c r="Q47" s="43">
+        <f t="shared" si="15"/>
+        <v>0.20898</v>
+      </c>
+      <c r="R47" s="43">
+        <f t="shared" si="15"/>
+        <v>0.125388</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>1294</v>
       </c>
-      <c r="N47" s="44">
-        <f>N45*(1+$S$12)</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O47" s="44">
-        <f t="shared" ref="O47:R47" si="17">O45*(1+$S$12)</f>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="P47" s="44">
-        <f t="shared" si="17"/>
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="Q47" s="44">
-        <f t="shared" si="17"/>
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="R47" s="44">
-        <f t="shared" si="17"/>
-        <v>0.28749999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+      <c r="N48" s="44">
+        <f>N46*(1+$S$12)</f>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="O48" s="44">
+        <f>N48*(1+$S$13)</f>
+        <v>0.67274999999999996</v>
+      </c>
+      <c r="P48" s="44">
+        <f t="shared" ref="P48:R48" si="16">O48*(1+$S$13)</f>
+        <v>0.4372875</v>
+      </c>
+      <c r="Q48" s="44">
+        <f t="shared" si="16"/>
+        <v>0.284236875</v>
+      </c>
+      <c r="R48" s="44">
+        <f t="shared" si="16"/>
+        <v>0.18475396875</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E50" s="41">
         <f>E27</f>
         <v>747</v>
       </c>
-      <c r="F49" s="41">
-        <f t="shared" ref="F49:M49" si="18">F27</f>
+      <c r="F50" s="41">
+        <f t="shared" ref="F50:M50" si="17">F27</f>
         <v>1934</v>
       </c>
-      <c r="G49" s="41">
-        <f t="shared" si="18"/>
+      <c r="G50" s="41">
+        <f t="shared" si="17"/>
         <v>3210</v>
       </c>
-      <c r="H49" s="41">
-        <f t="shared" si="18"/>
+      <c r="H50" s="41">
+        <f t="shared" si="17"/>
         <v>3804</v>
       </c>
-      <c r="I49" s="41">
-        <f t="shared" si="18"/>
+      <c r="I50" s="41">
+        <f t="shared" si="17"/>
         <v>2846</v>
       </c>
-      <c r="J49" s="41">
-        <f t="shared" si="18"/>
+      <c r="J50" s="41">
+        <f t="shared" si="17"/>
         <v>4532</v>
       </c>
-      <c r="K49" s="41">
-        <f t="shared" si="18"/>
+      <c r="K50" s="41">
+        <f t="shared" si="17"/>
         <v>10041</v>
       </c>
-      <c r="L49" s="41">
-        <f t="shared" si="18"/>
+      <c r="L50" s="41">
+        <f t="shared" si="17"/>
         <v>4224</v>
       </c>
-      <c r="M49" s="41">
-        <f t="shared" si="18"/>
+      <c r="M50" s="41">
+        <f t="shared" si="17"/>
         <v>32972</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="7">
-        <f>E49/E24</f>
-        <v>0.14910179640718563</v>
-      </c>
-      <c r="F50" s="7">
-        <f t="shared" ref="F50:M50" si="19">F49/F24</f>
-        <v>0.27988422575976846</v>
-      </c>
-      <c r="G50" s="7">
-        <f t="shared" si="19"/>
-        <v>0.33045089561457691</v>
-      </c>
-      <c r="H50" s="7">
-        <f t="shared" si="19"/>
-        <v>0.32468419255718678</v>
-      </c>
-      <c r="I50" s="7">
-        <f t="shared" si="19"/>
-        <v>0.2606704524638212</v>
-      </c>
-      <c r="J50" s="7">
-        <f t="shared" si="19"/>
-        <v>0.27178410794602698</v>
-      </c>
-      <c r="K50" s="7">
-        <f t="shared" si="19"/>
-        <v>0.37307720888756779</v>
-      </c>
-      <c r="L50" s="7">
-        <f t="shared" si="19"/>
-        <v>0.1565952398606065</v>
-      </c>
-      <c r="M50" s="7">
-        <f t="shared" si="19"/>
-        <v>0.54121663766783756</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>1274</v>
-      </c>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="E51" s="7">
+        <f>E50/E24</f>
+        <v>0.14910179640718563</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" ref="F51:M51" si="18">F50/F24</f>
+        <v>0.27988422575976846</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="18"/>
+        <v>0.33045089561457691</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="18"/>
+        <v>0.32468419255718678</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="18"/>
+        <v>0.2606704524638212</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" si="18"/>
+        <v>0.27178410794602698</v>
+      </c>
+      <c r="K51" s="7">
+        <f t="shared" si="18"/>
+        <v>0.37307720888756779</v>
+      </c>
+      <c r="L51" s="7">
+        <f t="shared" si="18"/>
+        <v>0.1565952398606065</v>
+      </c>
+      <c r="M51" s="7">
+        <f t="shared" si="18"/>
+        <v>0.54121663766783756</v>
+      </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="15"/>
@@ -6002,7 +6003,7 @@
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="15"/>
@@ -6010,492 +6011,502 @@
       <c r="Q53" s="15"/>
       <c r="R53" s="15"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>1277</v>
-      </c>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>1276</v>
+      </c>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>1278</v>
       </c>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="17" t="s">
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B59" s="17" t="s">
         <v>1279</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="41">
+      <c r="E61" s="41">
         <f>E31</f>
         <v>197</v>
       </c>
-      <c r="F60" s="41">
-        <f t="shared" ref="F60:M60" si="20">F31</f>
+      <c r="F61" s="41">
+        <f t="shared" ref="F61:M61" si="19">F31</f>
         <v>187</v>
       </c>
-      <c r="G60" s="41">
+      <c r="G61" s="41">
+        <f t="shared" si="19"/>
+        <v>199</v>
+      </c>
+      <c r="H61" s="41">
+        <f t="shared" si="19"/>
+        <v>262</v>
+      </c>
+      <c r="I61" s="41">
+        <f t="shared" si="19"/>
+        <v>381</v>
+      </c>
+      <c r="J61" s="41">
+        <f t="shared" si="19"/>
+        <v>1098</v>
+      </c>
+      <c r="K61" s="41">
+        <f t="shared" si="19"/>
+        <v>1174</v>
+      </c>
+      <c r="L61" s="41">
+        <f t="shared" si="19"/>
+        <v>1544</v>
+      </c>
+      <c r="M61" s="41">
+        <f t="shared" si="19"/>
+        <v>1508</v>
+      </c>
+      <c r="N61" s="13">
+        <v>1602</v>
+      </c>
+      <c r="O61" s="13">
+        <f t="shared" ref="O61:R61" si="20">O$24*O62</f>
+        <v>3241.0503999999992</v>
+      </c>
+      <c r="P61" s="13">
         <f t="shared" si="20"/>
-        <v>199</v>
-      </c>
-      <c r="H60" s="41">
+        <v>4213.3655199999994</v>
+      </c>
+      <c r="Q61" s="13">
         <f t="shared" si="20"/>
-        <v>262</v>
-      </c>
-      <c r="I60" s="41">
+        <v>5266.7068999999992</v>
+      </c>
+      <c r="R61" s="13">
         <f t="shared" si="20"/>
-        <v>381</v>
-      </c>
-      <c r="J60" s="41">
-        <f t="shared" si="20"/>
-        <v>1098</v>
-      </c>
-      <c r="K60" s="41">
-        <f t="shared" si="20"/>
-        <v>1174</v>
-      </c>
-      <c r="L60" s="41">
-        <f t="shared" si="20"/>
-        <v>1544</v>
-      </c>
-      <c r="M60" s="41">
-        <f t="shared" si="20"/>
-        <v>1508</v>
-      </c>
-      <c r="N60" s="13">
-        <v>1602</v>
-      </c>
-      <c r="O60" s="13">
-        <f t="shared" ref="O60:R60" si="21">O$24*O61</f>
-        <v>3411.6319999999996</v>
-      </c>
-      <c r="P60" s="13">
+        <v>6583.3836249999995</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E62" s="7">
+        <f>E61/E$24</f>
+        <v>3.932135728542914E-2</v>
+      </c>
+      <c r="F62" s="7">
+        <f t="shared" ref="F62:N62" si="21">F61/F$24</f>
+        <v>2.7062228654124457E-2</v>
+      </c>
+      <c r="G62" s="7">
         <f t="shared" si="21"/>
-        <v>4435.1215999999995</v>
-      </c>
-      <c r="Q60" s="13">
+        <v>2.0485896644018942E-2</v>
+      </c>
+      <c r="H62" s="7">
         <f t="shared" si="21"/>
-        <v>5543.902</v>
-      </c>
-      <c r="R60" s="13">
+        <v>2.2362581085694777E-2</v>
+      </c>
+      <c r="I62" s="7">
         <f t="shared" si="21"/>
-        <v>6929.8775000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E61" s="7">
-        <f>E60/E$24</f>
-        <v>3.932135728542914E-2</v>
-      </c>
-      <c r="F61" s="7">
-        <f t="shared" ref="F61:N61" si="22">F60/F$24</f>
-        <v>2.7062228654124457E-2</v>
-      </c>
-      <c r="G61" s="7">
-        <f t="shared" si="22"/>
-        <v>2.0485896644018942E-2</v>
-      </c>
-      <c r="H61" s="7">
-        <f t="shared" si="22"/>
-        <v>2.2362581085694777E-2</v>
-      </c>
-      <c r="I61" s="7">
-        <f t="shared" si="22"/>
         <v>3.4896501190694269E-2</v>
       </c>
-      <c r="J61" s="7">
-        <f t="shared" si="22"/>
+      <c r="J62" s="7">
+        <f t="shared" si="21"/>
         <v>6.5847076461769113E-2</v>
       </c>
-      <c r="K61" s="7">
-        <f t="shared" si="22"/>
+      <c r="K62" s="7">
+        <f t="shared" si="21"/>
         <v>4.362042059894479E-2</v>
       </c>
-      <c r="L61" s="7">
-        <f t="shared" si="22"/>
+      <c r="L62" s="7">
+        <f t="shared" si="21"/>
         <v>5.7240305479350488E-2</v>
       </c>
-      <c r="M61" s="7">
-        <f t="shared" si="22"/>
+      <c r="M62" s="7">
+        <f t="shared" si="21"/>
         <v>2.4752962804898065E-2</v>
       </c>
-      <c r="N61" s="40">
-        <f t="shared" si="22"/>
-        <v>1.3147959686156068E-2</v>
-      </c>
-      <c r="O61" s="40">
+      <c r="N62" s="40">
+        <f t="shared" si="21"/>
+        <v>1.3839957564374811E-2</v>
+      </c>
+      <c r="O62" s="40">
         <v>0.02</v>
       </c>
-      <c r="P61" s="40">
+      <c r="P62" s="40">
         <v>0.02</v>
       </c>
-      <c r="Q61" s="40">
+      <c r="Q62" s="40">
         <v>0.02</v>
       </c>
-      <c r="R61" s="40">
+      <c r="R62" s="40">
         <v>0.02</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-    </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="41">
+      <c r="E64" s="41">
         <f>E34</f>
         <v>86</v>
       </c>
-      <c r="F63" s="41">
-        <f t="shared" ref="F63:M63" si="23">F34</f>
+      <c r="F64" s="41">
+        <f t="shared" ref="F64:M64" si="22">F34</f>
         <v>176</v>
       </c>
-      <c r="G63" s="41">
-        <f t="shared" si="23"/>
+      <c r="G64" s="41">
+        <f t="shared" si="22"/>
         <v>593</v>
       </c>
-      <c r="H63" s="41">
-        <f t="shared" si="23"/>
+      <c r="H64" s="41">
+        <f t="shared" si="22"/>
         <v>600</v>
       </c>
-      <c r="I63" s="41">
-        <f t="shared" si="23"/>
+      <c r="I64" s="41">
+        <f t="shared" si="22"/>
         <v>489</v>
       </c>
-      <c r="J63" s="41">
-        <f t="shared" si="23"/>
+      <c r="J64" s="41">
+        <f t="shared" si="22"/>
         <v>1128</v>
       </c>
-      <c r="K63" s="41">
-        <f t="shared" si="23"/>
+      <c r="K64" s="41">
+        <f t="shared" si="22"/>
         <v>976</v>
       </c>
-      <c r="L63" s="41">
-        <f t="shared" si="23"/>
+      <c r="L64" s="41">
+        <f t="shared" si="22"/>
         <v>1833</v>
       </c>
-      <c r="M63" s="41">
-        <f t="shared" si="23"/>
+      <c r="M64" s="41">
+        <f t="shared" si="22"/>
         <v>1069</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N64" s="13">
         <v>1878</v>
       </c>
-      <c r="O63" s="13">
-        <f t="shared" ref="O63" si="24">O$24*O64</f>
-        <v>3411.6319999999996</v>
-      </c>
-      <c r="P63" s="13">
-        <f t="shared" ref="P63" si="25">P$24*P64</f>
-        <v>4435.1215999999995</v>
-      </c>
-      <c r="Q63" s="13">
-        <f t="shared" ref="Q63" si="26">Q$24*Q64</f>
-        <v>5543.902</v>
-      </c>
-      <c r="R63" s="13">
-        <f t="shared" ref="R63" si="27">R$24*R64</f>
-        <v>6929.8775000000005</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+      <c r="O64" s="13">
+        <f t="shared" ref="O64" si="23">O$24*O65</f>
+        <v>3241.0503999999992</v>
+      </c>
+      <c r="P64" s="13">
+        <f t="shared" ref="P64" si="24">P$24*P65</f>
+        <v>4213.3655199999994</v>
+      </c>
+      <c r="Q64" s="13">
+        <f t="shared" ref="Q64" si="25">Q$24*Q65</f>
+        <v>5266.7068999999992</v>
+      </c>
+      <c r="R64" s="13">
+        <f t="shared" ref="R64" si="26">R$24*R65</f>
+        <v>6583.3836249999995</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="7">
-        <f>E63/E$24</f>
+      <c r="E65" s="7">
+        <f>E64/E$24</f>
         <v>1.716566866267465E-2</v>
       </c>
-      <c r="F64" s="7">
-        <f t="shared" ref="F64" si="28">F63/F$24</f>
+      <c r="F65" s="7">
+        <f t="shared" ref="F65" si="27">F64/F$24</f>
         <v>2.5470332850940667E-2</v>
       </c>
-      <c r="G64" s="7">
-        <f t="shared" ref="G64" si="29">G63/G$24</f>
+      <c r="G65" s="7">
+        <f t="shared" ref="G65" si="28">G64/G$24</f>
         <v>6.1045913115091617E-2</v>
       </c>
-      <c r="H64" s="7">
-        <f t="shared" ref="H64" si="30">H63/H$24</f>
+      <c r="H65" s="7">
+        <f t="shared" ref="H65" si="29">H64/H$24</f>
         <v>5.1212017753499491E-2</v>
       </c>
-      <c r="I64" s="7">
-        <f t="shared" ref="I64" si="31">I63/I$24</f>
+      <c r="I65" s="7">
+        <f t="shared" ref="I65" si="30">I64/I$24</f>
         <v>4.478842278805642E-2</v>
       </c>
-      <c r="J64" s="7">
-        <f>J63/J$24</f>
+      <c r="J65" s="7">
+        <f>J64/J$24</f>
         <v>6.7646176911544231E-2</v>
       </c>
-      <c r="K64" s="7">
-        <f t="shared" ref="K64" si="32">K63/K$24</f>
+      <c r="K65" s="7">
+        <f t="shared" ref="K65" si="31">K64/K$24</f>
         <v>3.6263654603552055E-2</v>
       </c>
-      <c r="L64" s="7">
-        <f t="shared" ref="L64" si="33">L63/L$24</f>
+      <c r="L65" s="7">
+        <f t="shared" ref="L65" si="32">L64/L$24</f>
         <v>6.7954326388373995E-2</v>
       </c>
-      <c r="M64" s="7">
-        <f t="shared" ref="M64:N64" si="34">M63/M$24</f>
+      <c r="M65" s="7">
+        <f t="shared" ref="M65:N65" si="33">M64/M$24</f>
         <v>1.7547027346442992E-2</v>
       </c>
-      <c r="N64" s="40">
-        <f t="shared" si="34"/>
-        <v>1.5413151242572469E-2</v>
-      </c>
-      <c r="O64" s="40">
+      <c r="N65" s="40">
+        <f t="shared" si="33"/>
+        <v>1.6224369729023653E-2</v>
+      </c>
+      <c r="O65" s="40">
         <v>0.02</v>
       </c>
-      <c r="P64" s="40">
+      <c r="P65" s="40">
         <v>0.02</v>
       </c>
-      <c r="Q64" s="40">
+      <c r="Q65" s="40">
         <v>0.02</v>
       </c>
-      <c r="R64" s="40">
+      <c r="R65" s="40">
         <v>0.02</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-    </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>1281</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E67" s="41">
         <f>E37</f>
         <v>51</v>
       </c>
-      <c r="F66" s="41">
-        <f t="shared" ref="F66:M66" si="35">F37</f>
+      <c r="F67" s="41">
+        <f t="shared" ref="F67:M67" si="34">F37</f>
         <v>679</v>
       </c>
-      <c r="G66" s="41">
-        <f t="shared" si="35"/>
+      <c r="G67" s="41">
+        <f t="shared" si="34"/>
         <v>-185</v>
       </c>
-      <c r="H66" s="41">
-        <f t="shared" si="35"/>
+      <c r="H67" s="41">
+        <f t="shared" si="34"/>
         <v>857</v>
       </c>
-      <c r="I66" s="41">
-        <f t="shared" si="35"/>
+      <c r="I67" s="41">
+        <f t="shared" si="34"/>
         <v>-717</v>
       </c>
-      <c r="J66" s="41">
-        <f t="shared" si="35"/>
+      <c r="J67" s="41">
+        <f t="shared" si="34"/>
         <v>703</v>
       </c>
-      <c r="K66" s="41">
-        <f t="shared" si="35"/>
+      <c r="K67" s="41">
+        <f t="shared" si="34"/>
         <v>3363</v>
       </c>
-      <c r="L66" s="41">
-        <f t="shared" si="35"/>
+      <c r="L67" s="41">
+        <f t="shared" si="34"/>
         <v>2207</v>
       </c>
-      <c r="M66" s="41">
-        <f t="shared" si="35"/>
+      <c r="M67" s="41">
+        <f t="shared" si="34"/>
         <v>3722</v>
       </c>
-      <c r="N66" s="13">
-        <f>N$24*N67</f>
-        <v>4873.76</v>
-      </c>
-      <c r="O66" s="13">
-        <f t="shared" ref="O66" si="36">O$24*O67</f>
-        <v>6823.2639999999992</v>
-      </c>
-      <c r="P66" s="13">
-        <f t="shared" ref="P66" si="37">P$24*P67</f>
-        <v>8870.243199999999</v>
-      </c>
-      <c r="Q66" s="13">
-        <f t="shared" ref="Q66" si="38">Q$24*Q67</f>
-        <v>11087.804</v>
-      </c>
-      <c r="R66" s="13">
-        <f t="shared" ref="R66" si="39">R$24*R67</f>
-        <v>13859.755000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+      <c r="N67" s="13">
+        <f>N$24*N68</f>
+        <v>4630.0719999999992</v>
+      </c>
+      <c r="O67" s="13">
+        <f t="shared" ref="O67" si="35">O$24*O68</f>
+        <v>6482.1007999999983</v>
+      </c>
+      <c r="P67" s="13">
+        <f t="shared" ref="P67" si="36">P$24*P68</f>
+        <v>8426.7310399999988</v>
+      </c>
+      <c r="Q67" s="13">
+        <f t="shared" ref="Q67" si="37">Q$24*Q68</f>
+        <v>10533.413799999998</v>
+      </c>
+      <c r="R67" s="13">
+        <f t="shared" ref="R67" si="38">R$24*R68</f>
+        <v>13166.767249999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>1282</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E68" s="19">
         <v>0.04</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F68" s="19">
         <v>0.03</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G68" s="19">
         <v>0.02</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H68" s="19">
         <v>0.02</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I68" s="19">
         <v>0.03</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J68" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K68" s="19">
         <v>0.04</v>
       </c>
-      <c r="L67" s="19">
+      <c r="L68" s="19">
         <v>0.06</v>
       </c>
-      <c r="M67" s="19">
+      <c r="M68" s="19">
         <v>0.02</v>
       </c>
-      <c r="N67" s="40">
+      <c r="N68" s="40">
         <v>0.04</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O68" s="40">
         <v>0.04</v>
       </c>
-      <c r="P67" s="40">
+      <c r="P68" s="40">
         <v>0.04</v>
       </c>
-      <c r="Q67" s="40">
+      <c r="Q68" s="40">
         <v>0.04</v>
       </c>
-      <c r="R67" s="40">
+      <c r="R68" s="40">
         <v>0.04</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="20" t="s">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="20" t="s">
         <v>1283</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="22" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="22" t="s">
         <v>1284</v>
       </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>1285</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>2</v>
-      </c>
-      <c r="P72">
-        <v>3</v>
-      </c>
-      <c r="Q72">
-        <v>4</v>
-      </c>
-      <c r="R72">
-        <v>5</v>
-      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>2</v>
+      </c>
+      <c r="P73">
+        <v>3</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>1286</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>1292</v>
       </c>
     </row>

--- a/Excel/DCF NVDA 01.09.24.xlsx
+++ b/Excel/DCF NVDA 01.09.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Finance-Portfolio/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C535A51-CF7A-7C45-8BDE-3B6225BFEAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C64D15-DBDC-164B-AF1F-E2428B676075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19420" xr2:uid="{0DBC7CBB-1BA4-E74A-ACDB-390B09A12D21}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19380" xr2:uid="{0DBC7CBB-1BA4-E74A-ACDB-390B09A12D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Balance Sheet" sheetId="7" r:id="rId4"/>
     <sheet name="Cash Flow Statement" sheetId="9" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="TGR">Sheet1!$D$19</definedName>
+    <definedName name="wacc">Sheet1!$D$18</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1322">
   <si>
     <t>Revenue</t>
   </si>
@@ -3920,21 +3921,9 @@
     <t>% growth</t>
   </si>
   <si>
-    <t>conservative Case</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>Opt</t>
-  </si>
-  <si>
     <t>Taxes</t>
   </si>
   <si>
-    <t>% of EBIT</t>
-  </si>
-  <si>
     <t>EBIAT</t>
   </si>
   <si>
@@ -3953,12 +3942,6 @@
     <t>Present Value of FCF</t>
   </si>
   <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Discount Period</t>
-  </si>
-  <si>
     <t>Terminal Value</t>
   </si>
   <si>
@@ -3977,9 +3960,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Street Case</t>
-  </si>
-  <si>
     <t>Optimistic Case</t>
   </si>
   <si>
@@ -4013,18 +3993,6 @@
     <t>Market Cap</t>
   </si>
   <si>
-    <t xml:space="preserve">cash and Cash equivelants </t>
-  </si>
-  <si>
-    <t>total Debt</t>
-  </si>
-  <si>
-    <t>Value of Equity</t>
-  </si>
-  <si>
-    <t>Value of Debt</t>
-  </si>
-  <si>
     <t>Cost of Debt</t>
   </si>
   <si>
@@ -4056,6 +4024,45 @@
   </si>
   <si>
     <t>26-29</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Base Case</t>
+  </si>
+  <si>
+    <t>% of Equity</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>% of Debt</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Diluted Shares</t>
+  </si>
+  <si>
+    <t>Implied Stock Price</t>
+  </si>
+  <si>
+    <t>Implied Price Per share</t>
+  </si>
+  <si>
+    <t>Current Share Price</t>
+  </si>
+  <si>
+    <t>Low-End</t>
+  </si>
+  <si>
+    <t>High-End</t>
   </si>
 </sst>
 </file>
@@ -4067,8 +4074,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -4190,7 +4197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -4223,19 +4230,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -4249,17 +4243,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -4286,37 +4269,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4324,8 +4278,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4335,48 +4290,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4386,9 +4319,48 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{DB4072AD-8382-744E-82D1-2702992D9851}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{3FA3ED8C-5144-6D4B-92D5-F56C1036731A}"/>
@@ -4405,41 +4377,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Statement Model"/>
-      <sheetName val="DCF"/>
-      <sheetName val="Income Statement"/>
-      <sheetName val="Balance Sheet"/>
-      <sheetName val="Cash Flow Statement"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>3449100000</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>51463200000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4759,17 +4696,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BE7BB4-D47D-1A46-AE97-BC46A7EBDBD5}">
-  <dimension ref="B2:S81"/>
+  <dimension ref="B2:S84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="13" width="10.6640625" customWidth="1"/>
-    <col min="14" max="18" width="12.33203125" customWidth="1"/>
+    <col min="14" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -4784,6 +4722,19 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H4" s="53">
+        <f ca="1">R84</f>
+        <v>161.56174928122144</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L4" s="53">
+        <v>74.019191915602988</v>
+      </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -4792,6 +4743,18 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H5" s="53">
+        <v>119.37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L5" s="53">
+        <v>202.29</v>
+      </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -4799,6 +4762,14 @@
       </c>
       <c r="C6" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" t="str">
+        <f ca="1">IF(H6&gt;0, "Implied Upside", "Implied Downside")</f>
+        <v>Implied Upside</v>
+      </c>
+      <c r="H6" s="53">
+        <f ca="1">H4-H5</f>
+        <v>42.191749281221433</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
@@ -4859,10 +4830,10 @@
         <v>7</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="27" t="s">
         <v>1268</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="27" t="s">
         <v>1269</v>
       </c>
       <c r="J11" s="2"/>
@@ -4870,10 +4841,10 @@
         <v>7</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="27" t="s">
         <v>1268</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="27" t="s">
         <v>1269</v>
       </c>
       <c r="O11" s="2"/>
@@ -4881,10 +4852,10 @@
         <v>7</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="45" t="s">
+      <c r="R11" s="27" t="s">
         <v>1268</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="27" t="s">
         <v>1269</v>
       </c>
     </row>
@@ -4893,25 +4864,26 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="46"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="K12" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="28">
         <v>2025</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="29">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="28">
         <v>2025</v>
       </c>
-      <c r="S12" s="47">
+      <c r="S12" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -4925,28 +4897,28 @@
       <c r="F13" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="46" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I13" s="47">
+      <c r="H13" s="28" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I13" s="29">
         <v>-0.45</v>
       </c>
       <c r="K13" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="46" t="s">
-        <v>1319</v>
-      </c>
-      <c r="N13" s="47">
+      <c r="M13" s="28" t="s">
+        <v>1308</v>
+      </c>
+      <c r="N13" s="29">
         <v>-0.4</v>
       </c>
       <c r="P13" t="s">
         <v>0</v>
       </c>
-      <c r="R13" s="46" t="s">
-        <v>1319</v>
-      </c>
-      <c r="S13" s="47">
+      <c r="R13" s="28" t="s">
+        <v>1308</v>
+      </c>
+      <c r="S13" s="29">
         <v>-0.35</v>
       </c>
     </row>
@@ -4955,16 +4927,31 @@
         <v>1265</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
+      <c r="H14" s="31" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I14" s="30">
+        <v>-2.5000000000000001E-2</v>
+      </c>
       <c r="K14" t="s">
         <v>10</v>
       </c>
+      <c r="M14" s="31" t="s">
+        <v>1310</v>
+      </c>
       <c r="P14" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>1310</v>
+      </c>
+      <c r="S14" s="30">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
@@ -4977,45 +4964,110 @@
       <c r="F15" t="s">
         <v>10</v>
       </c>
+      <c r="H15" s="31" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.5</v>
+      </c>
       <c r="K15" t="s">
         <v>10</v>
       </c>
+      <c r="M15" s="31" t="s">
+        <v>1309</v>
+      </c>
       <c r="P15" t="s">
         <v>10</v>
       </c>
+      <c r="R15" s="31" t="s">
+        <v>1309</v>
+      </c>
+      <c r="S15" s="29">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>1267</v>
       </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>1265</v>
       </c>
+      <c r="D18" s="7">
+        <f>CHOOSE(D14,I18,M18,S18)</f>
+        <v>0.08</v>
+      </c>
       <c r="F18" t="s">
         <v>1265</v>
       </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="K18" t="s">
         <v>1265</v>
       </c>
+      <c r="M18" s="43">
+        <f>WACC!D21</f>
+        <v>0.12973848145334313</v>
+      </c>
       <c r="P18" t="s">
         <v>1265</v>
+      </c>
+      <c r="R18" s="28"/>
+      <c r="S18" s="29">
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1266</v>
       </c>
+      <c r="D19" s="10">
+        <f>CHOOSE(D15,I19,M19,S19)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="F19" t="s">
         <v>1266</v>
       </c>
-      <c r="K19" t="s">
+      <c r="H19" s="28"/>
+      <c r="I19" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47" t="s">
         <v>1266</v>
       </c>
-      <c r="P19" t="s">
+      <c r="L19" s="47"/>
+      <c r="M19" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47" t="s">
         <v>1266</v>
       </c>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
@@ -5023,32 +5075,32 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="42" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>1314</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>1315</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>1317</v>
-      </c>
-      <c r="M23" s="42" t="s">
-        <v>1318</v>
+      <c r="E23" s="24" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>1305</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>1307</v>
       </c>
       <c r="N23" s="4">
         <v>2025</v>
@@ -5071,59 +5123,59 @@
       <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="23">
         <f>'Income Statement'!T3</f>
         <v>5010</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="23">
         <f>'Income Statement'!U3</f>
         <v>6910</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="23">
         <f>'Income Statement'!V3</f>
         <v>9714</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="23">
         <f>'Income Statement'!W3</f>
         <v>11716</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="23">
         <f>'Income Statement'!X3</f>
         <v>10918</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="23">
         <f>'Income Statement'!Y3</f>
         <v>16675</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="23">
         <f>'Income Statement'!Z3</f>
         <v>26914</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="23">
         <f>'Income Statement'!AA3</f>
         <v>26974</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="23">
         <f>'Income Statement'!AB3</f>
         <v>60922</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="12">
         <f>M24*(1+N25)</f>
         <v>115751.79999999999</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="12">
         <f>N24*(1+O25)</f>
         <v>162052.51999999996</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="12">
         <f>O24*(1+P25)</f>
         <v>210668.27599999995</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="12">
         <f>P24*(1+Q25)</f>
         <v>263335.34499999997</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="12">
         <f>Q24*(1+R25)</f>
         <v>329169.18124999997</v>
       </c>
@@ -5149,18 +5201,18 @@
         <v>0.20609429689108502</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="0"/>
+        <f>(I24-H24)/H24</f>
         <v>-6.8111983612154314E-2</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="0"/>
+        <f>(J24-I24)/I24</f>
         <v>0.52729437625938813</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="0"/>
         <v>0.61403298350824587</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <f t="shared" si="0"/>
         <v>2.2293230289068887E-3</v>
       </c>
@@ -5168,19 +5220,19 @@
         <f>(M24-L24)/L24</f>
         <v>1.2585452658115222</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="13">
         <v>0.9</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="13">
         <v>0.4</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="13">
         <v>0.3</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="13">
         <v>0.25</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="13">
         <v>0.25</v>
       </c>
     </row>
@@ -5191,43 +5243,62 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="23">
         <f>'Income Statement'!T10</f>
         <v>747</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="23">
         <f>'Income Statement'!U10</f>
         <v>1934</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="23">
         <f>'Income Statement'!V10</f>
         <v>3210</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="23">
         <f>'Income Statement'!W10</f>
         <v>3804</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="23">
         <f>'Income Statement'!X10</f>
         <v>2846</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="23">
         <f>'Income Statement'!Y10</f>
         <v>4532</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="23">
         <f>'Income Statement'!Z10</f>
         <v>10041</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="23">
         <f>'Income Statement'!AA10</f>
         <v>4224</v>
       </c>
-      <c r="M27" s="41">
+      <c r="M27" s="23">
         <f>'Income Statement'!AB10</f>
         <v>32972</v>
       </c>
-      <c r="N27" s="11"/>
+      <c r="N27" s="10">
+        <f>N24*N28</f>
+        <v>75238.67</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" ref="O27:R27" si="1">O24*O28</f>
+        <v>105334.13799999998</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="1"/>
+        <v>136934.37939999998</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="1"/>
+        <v>171167.97425</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>213959.96781249999</v>
+      </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
@@ -5238,307 +5309,318 @@
         <v>0.14910179640718563</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" ref="F28:M28" si="1">F27/F24</f>
+        <f t="shared" ref="F28:M28" si="2">F27/F24</f>
         <v>0.27988422575976846</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33045089561457691</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32468419255718678</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2606704524638212</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27178410794602698</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37307720888756779</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1565952398606065</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54121663766783756</v>
       </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
+      <c r="N28" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="O28" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="42" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>1314</v>
-      </c>
-      <c r="J30" s="42" t="s">
-        <v>1315</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L30" s="42" t="s">
-        <v>1317</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>1318</v>
-      </c>
-      <c r="N30" s="4">
-        <v>2025</v>
-      </c>
-      <c r="O30" s="4">
-        <v>2026</v>
-      </c>
-      <c r="P30" s="4">
-        <v>2027</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>2028</v>
-      </c>
-      <c r="R30" s="4">
-        <v>2029</v>
-      </c>
-      <c r="S30" s="4"/>
+      <c r="B30" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E30" s="32">
+        <f>'Income Statement'!T16</f>
+        <v>129</v>
+      </c>
+      <c r="F30" s="32">
+        <f>'Income Statement'!U16</f>
+        <v>239</v>
+      </c>
+      <c r="G30" s="32">
+        <f>'Income Statement'!V16</f>
+        <v>149</v>
+      </c>
+      <c r="H30" s="32">
+        <f>'Income Statement'!W16</f>
+        <v>-245</v>
+      </c>
+      <c r="I30" s="32">
+        <f>'Income Statement'!X16</f>
+        <v>174</v>
+      </c>
+      <c r="J30" s="32">
+        <f>'Income Statement'!Y16</f>
+        <v>77</v>
+      </c>
+      <c r="K30" s="32">
+        <f>'Income Statement'!Z16</f>
+        <v>189</v>
+      </c>
+      <c r="L30" s="32">
+        <f>'Income Statement'!AA16</f>
+        <v>-187</v>
+      </c>
+      <c r="M30" s="32">
+        <f>'Income Statement'!AB16</f>
+        <v>4058</v>
+      </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E31" s="7">
+        <f>E30/'Income Statement'!T15</f>
+        <v>0.17362045760430686</v>
+      </c>
+      <c r="F31" s="7">
+        <f>F30/'Income Statement'!U15</f>
+        <v>0.12545931758530185</v>
+      </c>
+      <c r="G31" s="7">
+        <f>G30/'Income Statement'!V15</f>
+        <v>4.6620775969962454E-2</v>
+      </c>
+      <c r="H31" s="7">
+        <f>H30/'Income Statement'!W15</f>
+        <v>-6.2885010266940447E-2</v>
+      </c>
+      <c r="I31" s="7">
+        <f>I30/'Income Statement'!X15</f>
+        <v>5.8585858585858588E-2</v>
+      </c>
+      <c r="J31" s="7">
+        <f>J30/'Income Statement'!Y15</f>
+        <v>1.7464277613971423E-2</v>
+      </c>
+      <c r="K31" s="7">
+        <f>K30/'Income Statement'!Z15</f>
+        <v>1.9012171813700834E-2</v>
+      </c>
+      <c r="L31" s="7">
+        <f>L30/'Income Statement'!AA15</f>
+        <v>-4.4726142071274816E-2</v>
+      </c>
+      <c r="M31" s="7">
+        <f>M30/'Income Statement'!AB15</f>
+        <v>0.1199952687917677</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="24" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>1305</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>1307</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2025</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2026</v>
+      </c>
+      <c r="P33" s="4">
+        <v>2027</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>2028</v>
+      </c>
+      <c r="R33" s="4">
+        <v>2029</v>
+      </c>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E34" s="23">
         <f>'Cash Flow Statement'!T5</f>
         <v>197</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F34" s="23">
         <f>'Cash Flow Statement'!U5</f>
         <v>187</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G34" s="23">
         <f>'Cash Flow Statement'!V5</f>
         <v>199</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H34" s="23">
         <f>'Cash Flow Statement'!W5</f>
         <v>262</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I34" s="23">
         <f>'Cash Flow Statement'!X5</f>
         <v>381</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J34" s="23">
         <f>'Cash Flow Statement'!Y5</f>
         <v>1098</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K34" s="23">
         <f>'Cash Flow Statement'!Z5</f>
         <v>1174</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L34" s="23">
         <f>'Cash Flow Statement'!AA5</f>
         <v>1544</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M34" s="23">
         <f>'Cash Flow Statement'!AB5</f>
         <v>1508</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7">
-        <f>E31/E24</f>
-        <v>3.932135728542914E-2</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" ref="F32:M32" si="2">F31/F24</f>
-        <v>2.7062228654124457E-2</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="2"/>
-        <v>2.0485896644018942E-2</v>
-      </c>
-      <c r="H32" s="7">
-        <f t="shared" si="2"/>
-        <v>2.2362581085694777E-2</v>
-      </c>
-      <c r="I32" s="7">
-        <f t="shared" si="2"/>
-        <v>3.4896501190694269E-2</v>
-      </c>
-      <c r="J32" s="7">
-        <f t="shared" si="2"/>
-        <v>6.5847076461769113E-2</v>
-      </c>
-      <c r="K32" s="7">
-        <f t="shared" si="2"/>
-        <v>4.362042059894479E-2</v>
-      </c>
-      <c r="L32" s="7">
-        <f t="shared" si="2"/>
-        <v>5.7240305479350488E-2</v>
-      </c>
-      <c r="M32" s="7">
-        <f t="shared" si="2"/>
-        <v>2.4752962804898065E-2</v>
-      </c>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="41">
-        <f>-'Cash Flow Statement'!T33</f>
-        <v>86</v>
-      </c>
-      <c r="F34" s="41">
-        <f>-'Cash Flow Statement'!U33</f>
-        <v>176</v>
-      </c>
-      <c r="G34" s="41">
-        <f>-'Cash Flow Statement'!V33</f>
-        <v>593</v>
-      </c>
-      <c r="H34" s="41">
-        <f>-'Cash Flow Statement'!W33</f>
-        <v>600</v>
-      </c>
-      <c r="I34" s="41">
-        <f>-'Cash Flow Statement'!X33</f>
-        <v>489</v>
-      </c>
-      <c r="J34" s="41">
-        <f>-'Cash Flow Statement'!Y33</f>
-        <v>1128</v>
-      </c>
-      <c r="K34" s="41">
-        <f>-'Cash Flow Statement'!Z33</f>
-        <v>976</v>
-      </c>
-      <c r="L34" s="41">
-        <f>-'Cash Flow Statement'!AA33</f>
-        <v>1833</v>
-      </c>
-      <c r="M34" s="41">
-        <f>-'Cash Flow Statement'!AB33</f>
-        <v>1069</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>13</v>
       </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="7">
         <f>E34/E24</f>
-        <v>1.716566866267465E-2</v>
+        <v>3.932135728542914E-2</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" ref="F35:M35" si="3">F34/F24</f>
-        <v>2.5470332850940667E-2</v>
+        <v>2.7062228654124457E-2</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="3"/>
-        <v>6.1045913115091617E-2</v>
+        <v>2.0485896644018942E-2</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="3"/>
-        <v>5.1212017753499491E-2</v>
+        <v>2.2362581085694777E-2</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="3"/>
-        <v>4.478842278805642E-2</v>
+        <v>3.4896501190694269E-2</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="3"/>
-        <v>6.7646176911544231E-2</v>
+        <v>6.5847076461769113E-2</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>3.6263654603552055E-2</v>
+        <v>4.362042059894479E-2</v>
       </c>
       <c r="L35" s="7">
         <f t="shared" si="3"/>
-        <v>6.7954326388373995E-2</v>
+        <v>5.7240305479350488E-2</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" si="3"/>
-        <v>1.7547027346442992E-2</v>
-      </c>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
+        <v>2.4752962804898065E-2</v>
+      </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E37" s="41">
-        <f>-'Cash Flow Statement'!T9</f>
-        <v>51</v>
-      </c>
-      <c r="F37" s="41">
-        <f>-'Cash Flow Statement'!U9</f>
-        <v>679</v>
-      </c>
-      <c r="G37" s="41">
-        <f>-'Cash Flow Statement'!V9</f>
-        <v>-185</v>
-      </c>
-      <c r="H37" s="41">
-        <f>-'Cash Flow Statement'!W9</f>
-        <v>857</v>
-      </c>
-      <c r="I37" s="41">
-        <f>-'Cash Flow Statement'!X9</f>
-        <v>-717</v>
-      </c>
-      <c r="J37" s="41">
-        <f>-'Cash Flow Statement'!Y9</f>
-        <v>703</v>
-      </c>
-      <c r="K37" s="41">
-        <f>-'Cash Flow Statement'!Z9</f>
-        <v>3363</v>
-      </c>
-      <c r="L37" s="41">
-        <f>-'Cash Flow Statement'!AA9</f>
-        <v>2207</v>
-      </c>
-      <c r="M37" s="41">
-        <f>-'Cash Flow Statement'!AB9</f>
-        <v>3722</v>
+        <v>12</v>
+      </c>
+      <c r="E37" s="23">
+        <f>-'Cash Flow Statement'!T33</f>
+        <v>86</v>
+      </c>
+      <c r="F37" s="23">
+        <f>-'Cash Flow Statement'!U33</f>
+        <v>176</v>
+      </c>
+      <c r="G37" s="23">
+        <f>-'Cash Flow Statement'!V33</f>
+        <v>593</v>
+      </c>
+      <c r="H37" s="23">
+        <f>-'Cash Flow Statement'!W33</f>
+        <v>600</v>
+      </c>
+      <c r="I37" s="23">
+        <f>-'Cash Flow Statement'!X33</f>
+        <v>489</v>
+      </c>
+      <c r="J37" s="23">
+        <f>-'Cash Flow Statement'!Y33</f>
+        <v>1128</v>
+      </c>
+      <c r="K37" s="23">
+        <f>-'Cash Flow Statement'!Z33</f>
+        <v>976</v>
+      </c>
+      <c r="L37" s="23">
+        <f>-'Cash Flow Statement'!AA33</f>
+        <v>1833</v>
+      </c>
+      <c r="M37" s="23">
+        <f>-'Cash Flow Statement'!AB33</f>
+        <v>1069</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
@@ -5547,1134 +5629,1493 @@
       </c>
       <c r="E38" s="7">
         <f>E37/E24</f>
-        <v>1.0179640718562874E-2</v>
+        <v>1.716566866267465E-2</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" ref="F38:M38" si="4">F37/F24</f>
-        <v>9.8263386396526778E-2</v>
+        <v>2.5470332850940667E-2</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="4"/>
-        <v>-1.9044677784640723E-2</v>
+        <v>6.1045913115091617E-2</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="4"/>
-        <v>7.3147832024581763E-2</v>
+        <v>5.1212017753499491E-2</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>-6.5671368382487633E-2</v>
+        <v>4.478842278805642E-2</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="4"/>
-        <v>4.2158920539730138E-2</v>
+        <v>6.7646176911544231E-2</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="4"/>
-        <v>0.12495355577023111</v>
+        <v>3.6263654603552055E-2</v>
       </c>
       <c r="L38" s="7">
         <f t="shared" si="4"/>
-        <v>8.181952991769853E-2</v>
+        <v>6.7954326388373995E-2</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="4"/>
+        <v>1.7547027346442992E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E40" s="23">
+        <f>-'Cash Flow Statement'!T9</f>
+        <v>51</v>
+      </c>
+      <c r="F40" s="23">
+        <f>-'Cash Flow Statement'!U9</f>
+        <v>679</v>
+      </c>
+      <c r="G40" s="23">
+        <f>-'Cash Flow Statement'!V9</f>
+        <v>-185</v>
+      </c>
+      <c r="H40" s="23">
+        <f>-'Cash Flow Statement'!W9</f>
+        <v>857</v>
+      </c>
+      <c r="I40" s="23">
+        <f>-'Cash Flow Statement'!X9</f>
+        <v>-717</v>
+      </c>
+      <c r="J40" s="23">
+        <f>-'Cash Flow Statement'!Y9</f>
+        <v>703</v>
+      </c>
+      <c r="K40" s="23">
+        <f>-'Cash Flow Statement'!Z9</f>
+        <v>3363</v>
+      </c>
+      <c r="L40" s="23">
+        <f>-'Cash Flow Statement'!AA9</f>
+        <v>2207</v>
+      </c>
+      <c r="M40" s="23">
+        <f>-'Cash Flow Statement'!AB9</f>
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="7">
+        <f>E40/E24</f>
+        <v>1.0179640718562874E-2</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" ref="F41:M41" si="5">F40/F24</f>
+        <v>9.8263386396526778E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.9044677784640723E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="5"/>
+        <v>7.3147832024581763E-2</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="5"/>
+        <v>-6.5671368382487633E-2</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="5"/>
+        <v>4.2158920539730138E-2</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="5"/>
+        <v>0.12495355577023111</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="5"/>
+        <v>8.181952991769853E-2</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="5"/>
         <v>6.1094514296969896E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>1271</v>
       </c>
-      <c r="E39" s="7">
-        <f>E37/(E24-D24)</f>
+      <c r="E42" s="7">
+        <f>E40/(E24-D24)</f>
         <v>1.0179640718562874E-2</v>
       </c>
-      <c r="F39" s="7">
-        <f t="shared" ref="F39:M39" si="5">F37/(F24-E24)</f>
+      <c r="F42" s="7">
+        <f t="shared" ref="F42:M42" si="6">F40/(F24-E24)</f>
         <v>0.35736842105263156</v>
       </c>
-      <c r="G39" s="7">
-        <f t="shared" si="5"/>
+      <c r="G42" s="7">
+        <f t="shared" si="6"/>
         <v>-6.5977175463623389E-2</v>
       </c>
-      <c r="H39" s="7">
-        <f t="shared" si="5"/>
+      <c r="H42" s="7">
+        <f t="shared" si="6"/>
         <v>0.42807192807192807</v>
       </c>
-      <c r="I39" s="7">
-        <f t="shared" si="5"/>
+      <c r="I42" s="7">
+        <f>I40/(I24-H24)</f>
         <v>0.89849624060150379</v>
       </c>
-      <c r="J39" s="7">
-        <f t="shared" si="5"/>
+      <c r="J42" s="7">
+        <f>J40/(J24-I24)</f>
         <v>0.12211221122112212</v>
       </c>
-      <c r="K39" s="7">
-        <f t="shared" si="5"/>
+      <c r="K42" s="7">
+        <f t="shared" si="6"/>
         <v>0.32845004394960448</v>
       </c>
-      <c r="L39" s="7">
-        <f>L37/(L24-K24)</f>
+      <c r="L42" s="7">
+        <f>L40/(L24-K24)</f>
         <v>36.783333333333331</v>
       </c>
-      <c r="M39" s="7">
-        <f t="shared" si="5"/>
+      <c r="M42" s="7">
+        <f t="shared" si="6"/>
         <v>0.10963827029574644</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="N42">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="N45">
         <v>1</v>
       </c>
-      <c r="O42">
+      <c r="O45">
         <v>2</v>
       </c>
-      <c r="P42">
+      <c r="P45">
         <v>3</v>
       </c>
-      <c r="Q42">
+      <c r="Q45">
         <v>4</v>
       </c>
-      <c r="R42">
+      <c r="R45">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="42" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>1314</v>
-      </c>
-      <c r="J43" s="42" t="s">
-        <v>1315</v>
-      </c>
-      <c r="K43" s="42" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L43" s="42" t="s">
-        <v>1317</v>
-      </c>
-      <c r="M43" s="42" t="s">
-        <v>1318</v>
-      </c>
-      <c r="N43" s="4">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="24" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K46" s="24" t="s">
+        <v>1305</v>
+      </c>
+      <c r="L46" s="24" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>1307</v>
+      </c>
+      <c r="N46" s="4">
         <v>2025</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O46" s="4">
         <v>2026</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P46" s="4">
         <v>2027</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q46" s="4">
         <v>2028</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R46" s="4">
         <v>2029</v>
       </c>
-      <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E47" s="23">
         <f>E24</f>
         <v>5010</v>
       </c>
-      <c r="F44" s="41">
-        <f t="shared" ref="F44:M44" si="6">F24</f>
+      <c r="F47" s="23">
+        <f t="shared" ref="F47:M47" si="7">F24</f>
         <v>6910</v>
       </c>
-      <c r="G44" s="41">
-        <f t="shared" si="6"/>
+      <c r="G47" s="23">
+        <f t="shared" si="7"/>
         <v>9714</v>
       </c>
-      <c r="H44" s="41">
-        <f t="shared" si="6"/>
+      <c r="H47" s="23">
+        <f t="shared" si="7"/>
         <v>11716</v>
       </c>
-      <c r="I44" s="41">
-        <f t="shared" si="6"/>
+      <c r="I47" s="23">
+        <f t="shared" si="7"/>
         <v>10918</v>
       </c>
-      <c r="J44" s="41">
-        <f t="shared" si="6"/>
+      <c r="J47" s="23">
+        <f t="shared" si="7"/>
         <v>16675</v>
       </c>
-      <c r="K44" s="41">
-        <f t="shared" si="6"/>
+      <c r="K47" s="23">
+        <f t="shared" si="7"/>
         <v>26914</v>
       </c>
-      <c r="L44" s="41">
-        <f t="shared" si="6"/>
+      <c r="L47" s="23">
+        <f t="shared" si="7"/>
         <v>26974</v>
       </c>
-      <c r="M44" s="41">
-        <f t="shared" si="6"/>
+      <c r="M47" s="23">
+        <f t="shared" si="7"/>
         <v>60922</v>
       </c>
-      <c r="N44" s="16">
-        <f ca="1">M44*(1+N45)</f>
-        <v>115751.79999999999</v>
-      </c>
-      <c r="O44" s="16">
-        <f t="shared" ref="O44:Q44" ca="1" si="7">N44*(1+O45)</f>
-        <v>173048.94099999999</v>
-      </c>
-      <c r="P44" s="16">
-        <f t="shared" ca="1" si="7"/>
-        <v>220161.51518725001</v>
-      </c>
-      <c r="Q44" s="16">
-        <f t="shared" ca="1" si="7"/>
-        <v>253127.95006760088</v>
-      </c>
-      <c r="R44" s="16">
-        <f ca="1">Q44*(1+R45)</f>
-        <v>273974.4606003869</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+      <c r="N47" s="14">
+        <f ca="1">M47*(1+N48)</f>
+        <v>123976.27</v>
+      </c>
+      <c r="O47" s="14">
+        <f t="shared" ref="O47:Q47" ca="1" si="8">N47*(1+O48)</f>
+        <v>207381.3056425</v>
+      </c>
+      <c r="P47" s="14">
+        <f t="shared" ca="1" si="8"/>
+        <v>298066.5583336447</v>
+      </c>
+      <c r="Q47" s="14">
+        <f t="shared" ca="1" si="8"/>
+        <v>382788.06541640504</v>
+      </c>
+      <c r="R47" s="14">
+        <f ca="1">Q47*(1+R48)</f>
+        <v>453509.67969222047</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>1273</v>
       </c>
-      <c r="E45" s="7">
-        <f>(E44-'Income Statement'!S3)/'Income Statement'!S3</f>
+      <c r="E48" s="7">
+        <f>(E47-'Income Statement'!S3)/'Income Statement'!S3</f>
         <v>7.0055531824006839E-2</v>
       </c>
-      <c r="F45" s="7">
-        <f>(F44-E44)/E44</f>
+      <c r="F48" s="7">
+        <f>(F47-E47)/E47</f>
         <v>0.37924151696606784</v>
       </c>
-      <c r="G45" s="7">
-        <f t="shared" ref="G45" si="8">(G44-F44)/F44</f>
+      <c r="G48" s="7">
+        <f t="shared" ref="G48" si="9">(G47-F47)/F47</f>
         <v>0.4057887120115774</v>
       </c>
-      <c r="H45" s="7">
-        <f t="shared" ref="H45" si="9">(H44-G44)/G44</f>
+      <c r="H48" s="7">
+        <f t="shared" ref="H48" si="10">(H47-G47)/G47</f>
         <v>0.20609429689108502</v>
       </c>
-      <c r="I45" s="7">
-        <f t="shared" ref="I45" si="10">(I44-H44)/H44</f>
+      <c r="I48" s="7">
+        <f>(I47-H47)/H47</f>
         <v>-6.8111983612154314E-2</v>
       </c>
-      <c r="J45" s="7">
-        <f t="shared" ref="J45" si="11">(J44-I44)/I44</f>
+      <c r="J48" s="7">
+        <f>(J47-I47)/I47</f>
         <v>0.52729437625938813</v>
       </c>
-      <c r="K45" s="7">
-        <f t="shared" ref="K45" si="12">(K44-J44)/J44</f>
+      <c r="K48" s="7">
+        <f t="shared" ref="K48" si="11">(K47-J47)/J47</f>
         <v>0.61403298350824587</v>
       </c>
-      <c r="L45" s="12">
-        <f t="shared" ref="L45" si="13">(L44-K44)/K44</f>
+      <c r="L48" s="11">
+        <f t="shared" ref="L48" si="12">(L47-K47)/K47</f>
         <v>2.2293230289068887E-3</v>
       </c>
-      <c r="M45" s="7">
-        <f>(M44-L44)/L44</f>
+      <c r="M48" s="7">
+        <f>(M47-L47)/L47</f>
         <v>1.2585452658115222</v>
       </c>
-      <c r="N45" s="7">
-        <f ca="1">OFFSET(N45,$D12,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="O45" s="7">
-        <f ca="1">OFFSET(O45,$D12,0)</f>
-        <v>0.49500000000000005</v>
-      </c>
-      <c r="P45" s="7">
-        <f ca="1">OFFSET(P45,$D12,0)</f>
-        <v>0.27225000000000005</v>
-      </c>
-      <c r="Q45" s="7">
-        <f ca="1">OFFSET(Q45,$D12,0)</f>
-        <v>0.14973750000000005</v>
-      </c>
-      <c r="R45" s="7">
-        <f ca="1">OFFSET(R45,$D12,0)</f>
-        <v>8.235562500000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>1295</v>
-      </c>
-      <c r="N46" s="14">
+      <c r="N48" s="7">
+        <f ca="1">OFFSET(N48,$D12,0)</f>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="O48" s="7">
+        <f ca="1">OFFSET(O48,$D12,0)</f>
+        <v>0.67274999999999996</v>
+      </c>
+      <c r="P48" s="7">
+        <f ca="1">OFFSET(P48,$D12,0)</f>
+        <v>0.4372875</v>
+      </c>
+      <c r="Q48" s="7">
+        <f ca="1">OFFSET(Q48,$D12,0)</f>
+        <v>0.284236875</v>
+      </c>
+      <c r="R48" s="7">
+        <f ca="1">OFFSET(R48,$D12,0)</f>
+        <v>0.18475396875</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N49" s="13">
         <f>N25</f>
         <v>0.9</v>
       </c>
-      <c r="O46" s="14">
-        <f>N46*(1+$I$13)</f>
+      <c r="O49" s="13">
+        <f>N49*(1+$I$13)</f>
         <v>0.49500000000000005</v>
       </c>
-      <c r="P46" s="14">
-        <f t="shared" ref="P46:R46" si="14">O46*(1+$I$13)</f>
+      <c r="P49" s="13">
+        <f t="shared" ref="P49:R49" si="13">O49*(1+$I$13)</f>
         <v>0.27225000000000005</v>
       </c>
-      <c r="Q46" s="14">
-        <f t="shared" si="14"/>
+      <c r="Q49" s="13">
+        <f t="shared" si="13"/>
         <v>0.14973750000000005</v>
       </c>
-      <c r="R46" s="14">
-        <f t="shared" si="14"/>
+      <c r="R49" s="13">
+        <f t="shared" si="13"/>
         <v>8.235562500000003E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>1293</v>
-      </c>
-      <c r="N47" s="43">
-        <f>N46*(1+$N$12)</f>
-        <v>0.96750000000000003</v>
-      </c>
-      <c r="O47" s="43">
-        <f>N47*(1+$N$13)</f>
-        <v>0.58050000000000002</v>
-      </c>
-      <c r="P47" s="43">
-        <f t="shared" ref="P47:R47" si="15">O47*(1+$N$13)</f>
-        <v>0.3483</v>
-      </c>
-      <c r="Q47" s="43">
-        <f t="shared" si="15"/>
-        <v>0.20898</v>
-      </c>
-      <c r="R47" s="43">
-        <f t="shared" si="15"/>
-        <v>0.125388</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>1294</v>
-      </c>
-      <c r="N48" s="44">
-        <f>N46*(1+$S$12)</f>
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="O48" s="44">
-        <f>N48*(1+$S$13)</f>
-        <v>0.67274999999999996</v>
-      </c>
-      <c r="P48" s="44">
-        <f t="shared" ref="P48:R48" si="16">O48*(1+$S$13)</f>
-        <v>0.4372875</v>
-      </c>
-      <c r="Q48" s="44">
-        <f t="shared" si="16"/>
-        <v>0.284236875</v>
-      </c>
-      <c r="R48" s="44">
-        <f t="shared" si="16"/>
-        <v>0.18475396875</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
+        <v>1311</v>
+      </c>
+      <c r="N50" s="25">
+        <f>N49*(1+$N$12)</f>
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="O50" s="25">
+        <f>N50*(1+$N$13)</f>
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="P50" s="25">
+        <f t="shared" ref="P50:R50" si="14">O50*(1+$N$13)</f>
+        <v>0.3483</v>
+      </c>
+      <c r="Q50" s="25">
+        <f t="shared" si="14"/>
+        <v>0.20898</v>
+      </c>
+      <c r="R50" s="25">
+        <f t="shared" si="14"/>
+        <v>0.125388</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>1287</v>
+      </c>
+      <c r="N51" s="26">
+        <f>N49*(1+$S$12)</f>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="O51" s="26">
+        <f>N51*(1+$S$13)</f>
+        <v>0.67274999999999996</v>
+      </c>
+      <c r="P51" s="26">
+        <f t="shared" ref="P51:R51" si="15">O51*(1+$S$13)</f>
+        <v>0.4372875</v>
+      </c>
+      <c r="Q51" s="26">
+        <f t="shared" si="15"/>
+        <v>0.284236875</v>
+      </c>
+      <c r="R51" s="26">
+        <f t="shared" si="15"/>
+        <v>0.18475396875</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E53" s="23">
         <f>E27</f>
         <v>747</v>
       </c>
-      <c r="F50" s="41">
-        <f t="shared" ref="F50:M50" si="17">F27</f>
+      <c r="F53" s="23">
+        <f t="shared" ref="F53:M53" si="16">F27</f>
         <v>1934</v>
       </c>
-      <c r="G50" s="41">
-        <f t="shared" si="17"/>
+      <c r="G53" s="23">
+        <f t="shared" si="16"/>
         <v>3210</v>
       </c>
-      <c r="H50" s="41">
-        <f t="shared" si="17"/>
+      <c r="H53" s="23">
+        <f t="shared" si="16"/>
         <v>3804</v>
       </c>
-      <c r="I50" s="41">
-        <f t="shared" si="17"/>
+      <c r="I53" s="23">
+        <f t="shared" si="16"/>
         <v>2846</v>
       </c>
-      <c r="J50" s="41">
-        <f t="shared" si="17"/>
+      <c r="J53" s="23">
+        <f t="shared" si="16"/>
         <v>4532</v>
       </c>
-      <c r="K50" s="41">
-        <f t="shared" si="17"/>
+      <c r="K53" s="23">
+        <f t="shared" si="16"/>
         <v>10041</v>
       </c>
-      <c r="L50" s="41">
-        <f t="shared" si="17"/>
+      <c r="L53" s="23">
+        <f t="shared" si="16"/>
         <v>4224</v>
       </c>
-      <c r="M50" s="41">
-        <f t="shared" si="17"/>
+      <c r="M53" s="23">
+        <f t="shared" si="16"/>
         <v>32972</v>
       </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+      <c r="N53" s="14">
+        <f ca="1">N47*N54</f>
+        <v>80584.575500000006</v>
+      </c>
+      <c r="O53" s="14">
+        <f t="shared" ref="O53:R53" ca="1" si="17">O47*O54</f>
+        <v>134797.84866762499</v>
+      </c>
+      <c r="P53" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>193743.26291686908</v>
+      </c>
+      <c r="Q53" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>248812.24252066328</v>
+      </c>
+      <c r="R53" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>294781.29179994331</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="7">
-        <f>E50/E24</f>
+      <c r="E54" s="7">
+        <f>E53/E24</f>
         <v>0.14910179640718563</v>
       </c>
-      <c r="F51" s="7">
-        <f t="shared" ref="F51:M51" si="18">F50/F24</f>
+      <c r="F54" s="7">
+        <f t="shared" ref="F54:M54" si="18">F53/F24</f>
         <v>0.27988422575976846</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G54" s="7">
         <f t="shared" si="18"/>
         <v>0.33045089561457691</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H54" s="7">
         <f t="shared" si="18"/>
         <v>0.32468419255718678</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I54" s="7">
         <f t="shared" si="18"/>
         <v>0.2606704524638212</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J54" s="7">
         <f t="shared" si="18"/>
         <v>0.27178410794602698</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K54" s="7">
         <f t="shared" si="18"/>
         <v>0.37307720888756779</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L54" s="7">
         <f t="shared" si="18"/>
         <v>0.1565952398606065</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M54" s="7">
         <f t="shared" si="18"/>
         <v>0.54121663766783756</v>
       </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>1274</v>
-      </c>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>1275</v>
-      </c>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>1276</v>
-      </c>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
+      <c r="N54" s="7">
+        <f ca="1">OFFSET(N54,$D13,0)</f>
+        <v>0.65</v>
+      </c>
+      <c r="O54" s="7">
+        <f ca="1">OFFSET(O54,$D13,0)</f>
+        <v>0.65</v>
+      </c>
+      <c r="P54" s="7">
+        <f ca="1">OFFSET(P54,$D13,0)</f>
+        <v>0.65</v>
+      </c>
+      <c r="Q54" s="7">
+        <f ca="1">OFFSET(Q54,$D13,0)</f>
+        <v>0.65</v>
+      </c>
+      <c r="R54" s="7">
+        <f ca="1">OFFSET(R54,$D13,0)</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N55" s="13">
+        <f>N56*(1+$I$14)</f>
+        <v>0.63375000000000004</v>
+      </c>
+      <c r="O55" s="13">
+        <f>N55+($R$55-$N$55)/($R$46-N46)</f>
+        <v>0.60031250000000003</v>
+      </c>
+      <c r="P55" s="13">
+        <f t="shared" ref="P55:Q55" si="19">O55+($R$55-$N$55)/($R$46-O46)</f>
+        <v>0.55572916666666672</v>
+      </c>
+      <c r="Q55" s="13">
+        <f t="shared" si="19"/>
+        <v>0.4888541666666667</v>
+      </c>
+      <c r="R55" s="13">
+        <f>I15</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>1277</v>
+        <v>1311</v>
+      </c>
+      <c r="N56" s="13">
+        <f>N28</f>
+        <v>0.65</v>
+      </c>
+      <c r="O56" s="13">
+        <f t="shared" ref="O56:R56" si="20">O28</f>
+        <v>0.65</v>
+      </c>
+      <c r="P56" s="13">
+        <f t="shared" si="20"/>
+        <v>0.65</v>
+      </c>
+      <c r="Q56" s="13">
+        <f t="shared" si="20"/>
+        <v>0.65</v>
+      </c>
+      <c r="R56" s="13">
+        <f t="shared" si="20"/>
+        <v>0.65</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>1278</v>
-      </c>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
+        <v>1287</v>
+      </c>
+      <c r="N57" s="13">
+        <f>N56*(1+S14)</f>
+        <v>0.66625000000000001</v>
+      </c>
+      <c r="O57" s="13">
+        <f>N57+($R$57-$N$57)/($R$46-N46)</f>
+        <v>0.66968749999999999</v>
+      </c>
+      <c r="P57" s="13">
+        <f t="shared" ref="P57:Q57" si="21">O57+($R$57-$N$57)/($R$46-O46)</f>
+        <v>0.67427083333333337</v>
+      </c>
+      <c r="Q57" s="13">
+        <f t="shared" si="21"/>
+        <v>0.68114583333333334</v>
+      </c>
+      <c r="R57" s="13">
+        <f>S15</f>
+        <v>0.68</v>
+      </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="41">
+      <c r="B59" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E59" s="35">
+        <f>E30</f>
+        <v>129</v>
+      </c>
+      <c r="F59" s="35">
+        <f t="shared" ref="F59:M59" si="22">F30</f>
+        <v>239</v>
+      </c>
+      <c r="G59" s="35">
+        <f t="shared" si="22"/>
+        <v>149</v>
+      </c>
+      <c r="H59" s="35">
+        <f t="shared" si="22"/>
+        <v>-245</v>
+      </c>
+      <c r="I59" s="35">
+        <f t="shared" si="22"/>
+        <v>174</v>
+      </c>
+      <c r="J59" s="35">
+        <f t="shared" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="K59" s="35">
+        <f t="shared" si="22"/>
+        <v>189</v>
+      </c>
+      <c r="L59" s="35">
+        <f t="shared" si="22"/>
+        <v>-187</v>
+      </c>
+      <c r="M59" s="35">
+        <f t="shared" si="22"/>
+        <v>4058</v>
+      </c>
+      <c r="N59" s="14">
+        <f ca="1">N53*N60</f>
+        <v>4057.4062966647552</v>
+      </c>
+      <c r="O59" s="14">
+        <f t="shared" ref="O59:Q59" ca="1" si="23">O53*O60</f>
+        <v>6787.0263827459676</v>
+      </c>
+      <c r="P59" s="14">
+        <f t="shared" ca="1" si="23"/>
+        <v>9754.908182090996</v>
+      </c>
+      <c r="Q59" s="14">
+        <f t="shared" ca="1" si="23"/>
+        <v>12527.61279968047</v>
+      </c>
+      <c r="R59" s="14">
+        <f ca="1">R53*R60</f>
+        <v>14842.138983384735</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E60" s="7">
         <f>E31</f>
-        <v>197</v>
-      </c>
-      <c r="F61" s="41">
-        <f t="shared" ref="F61:M61" si="19">F31</f>
-        <v>187</v>
-      </c>
-      <c r="G61" s="41">
-        <f t="shared" si="19"/>
-        <v>199</v>
-      </c>
-      <c r="H61" s="41">
-        <f t="shared" si="19"/>
-        <v>262</v>
-      </c>
-      <c r="I61" s="41">
-        <f t="shared" si="19"/>
-        <v>381</v>
-      </c>
-      <c r="J61" s="41">
-        <f t="shared" si="19"/>
-        <v>1098</v>
-      </c>
-      <c r="K61" s="41">
-        <f t="shared" si="19"/>
-        <v>1174</v>
-      </c>
-      <c r="L61" s="41">
-        <f t="shared" si="19"/>
-        <v>1544</v>
-      </c>
-      <c r="M61" s="41">
-        <f t="shared" si="19"/>
-        <v>1508</v>
-      </c>
-      <c r="N61" s="13">
-        <v>1602</v>
-      </c>
-      <c r="O61" s="13">
-        <f t="shared" ref="O61:R61" si="20">O$24*O62</f>
-        <v>3241.0503999999992</v>
-      </c>
-      <c r="P61" s="13">
-        <f t="shared" si="20"/>
-        <v>4213.3655199999994</v>
-      </c>
-      <c r="Q61" s="13">
-        <f t="shared" si="20"/>
-        <v>5266.7068999999992</v>
-      </c>
-      <c r="R61" s="13">
-        <f t="shared" si="20"/>
-        <v>6583.3836249999995</v>
+        <v>0.17362045760430686</v>
+      </c>
+      <c r="F60" s="7">
+        <f t="shared" ref="F60:M60" si="24">F31</f>
+        <v>0.12545931758530185</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="24"/>
+        <v>4.6620775969962454E-2</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="24"/>
+        <v>-6.2885010266940447E-2</v>
+      </c>
+      <c r="I60" s="7">
+        <f t="shared" si="24"/>
+        <v>5.8585858585858588E-2</v>
+      </c>
+      <c r="J60" s="7">
+        <f t="shared" si="24"/>
+        <v>1.7464277613971423E-2</v>
+      </c>
+      <c r="K60" s="7">
+        <f t="shared" si="24"/>
+        <v>1.9012171813700834E-2</v>
+      </c>
+      <c r="L60" s="7">
+        <f t="shared" si="24"/>
+        <v>-4.4726142071274816E-2</v>
+      </c>
+      <c r="M60" s="7">
+        <f t="shared" si="24"/>
+        <v>0.1199952687917677</v>
+      </c>
+      <c r="N60" s="13">
+        <f>AVERAGE($E$60:$M$60)</f>
+        <v>5.0349663958517157E-2</v>
+      </c>
+      <c r="O60" s="13">
+        <f t="shared" ref="O60:R60" si="25">AVERAGE($E$60:$M$60)</f>
+        <v>5.0349663958517157E-2</v>
+      </c>
+      <c r="P60" s="13">
+        <f t="shared" si="25"/>
+        <v>5.0349663958517157E-2</v>
+      </c>
+      <c r="Q60" s="13">
+        <f t="shared" si="25"/>
+        <v>5.0349663958517157E-2</v>
+      </c>
+      <c r="R60" s="13">
+        <f t="shared" si="25"/>
+        <v>5.0349663958517157E-2</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E62" s="7">
-        <f>E61/E$24</f>
-        <v>3.932135728542914E-2</v>
-      </c>
-      <c r="F62" s="7">
-        <f t="shared" ref="F62:N62" si="21">F61/F$24</f>
-        <v>2.7062228654124457E-2</v>
-      </c>
-      <c r="G62" s="7">
-        <f t="shared" si="21"/>
-        <v>2.0485896644018942E-2</v>
-      </c>
-      <c r="H62" s="7">
-        <f t="shared" si="21"/>
-        <v>2.2362581085694777E-2</v>
-      </c>
-      <c r="I62" s="7">
-        <f t="shared" si="21"/>
-        <v>3.4896501190694269E-2</v>
-      </c>
-      <c r="J62" s="7">
-        <f t="shared" si="21"/>
-        <v>6.5847076461769113E-2</v>
-      </c>
-      <c r="K62" s="7">
-        <f t="shared" si="21"/>
-        <v>4.362042059894479E-2</v>
-      </c>
-      <c r="L62" s="7">
-        <f t="shared" si="21"/>
-        <v>5.7240305479350488E-2</v>
-      </c>
-      <c r="M62" s="7">
-        <f t="shared" si="21"/>
-        <v>2.4752962804898065E-2</v>
-      </c>
-      <c r="N62" s="40">
-        <f t="shared" si="21"/>
-        <v>1.3839957564374811E-2</v>
-      </c>
-      <c r="O62" s="40">
-        <v>0.02</v>
-      </c>
-      <c r="P62" s="40">
-        <v>0.02</v>
-      </c>
-      <c r="Q62" s="40">
-        <v>0.02</v>
-      </c>
-      <c r="R62" s="40">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
+      <c r="B62" s="15" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="33">
+        <f ca="1">N53-N59</f>
+        <v>76527.169203335245</v>
+      </c>
+      <c r="O62" s="33">
+        <f t="shared" ref="O62:R62" ca="1" si="26">O53-O59</f>
+        <v>128010.82228487902</v>
+      </c>
+      <c r="P62" s="33">
+        <f t="shared" ca="1" si="26"/>
+        <v>183988.35473477808</v>
+      </c>
+      <c r="Q62" s="33">
+        <f t="shared" ca="1" si="26"/>
+        <v>236284.6297209828</v>
+      </c>
+      <c r="R62" s="33">
+        <f t="shared" ca="1" si="26"/>
+        <v>279939.15281655861</v>
+      </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="41">
+        <v>11</v>
+      </c>
+      <c r="E64" s="23">
         <f>E34</f>
-        <v>86</v>
-      </c>
-      <c r="F64" s="41">
-        <f t="shared" ref="F64:M64" si="22">F34</f>
-        <v>176</v>
-      </c>
-      <c r="G64" s="41">
-        <f t="shared" si="22"/>
-        <v>593</v>
-      </c>
-      <c r="H64" s="41">
-        <f t="shared" si="22"/>
-        <v>600</v>
-      </c>
-      <c r="I64" s="41">
-        <f t="shared" si="22"/>
-        <v>489</v>
-      </c>
-      <c r="J64" s="41">
-        <f t="shared" si="22"/>
-        <v>1128</v>
-      </c>
-      <c r="K64" s="41">
-        <f t="shared" si="22"/>
-        <v>976</v>
-      </c>
-      <c r="L64" s="41">
-        <f t="shared" si="22"/>
-        <v>1833</v>
-      </c>
-      <c r="M64" s="41">
-        <f t="shared" si="22"/>
-        <v>1069</v>
-      </c>
-      <c r="N64" s="13">
-        <v>1878</v>
-      </c>
-      <c r="O64" s="13">
-        <f t="shared" ref="O64" si="23">O$24*O65</f>
-        <v>3241.0503999999992</v>
-      </c>
-      <c r="P64" s="13">
-        <f t="shared" ref="P64" si="24">P$24*P65</f>
-        <v>4213.3655199999994</v>
-      </c>
-      <c r="Q64" s="13">
-        <f t="shared" ref="Q64" si="25">Q$24*Q65</f>
-        <v>5266.7068999999992</v>
-      </c>
-      <c r="R64" s="13">
-        <f t="shared" ref="R64" si="26">R$24*R65</f>
-        <v>6583.3836249999995</v>
+        <v>197</v>
+      </c>
+      <c r="F64" s="23">
+        <f t="shared" ref="F64:M64" si="27">F34</f>
+        <v>187</v>
+      </c>
+      <c r="G64" s="23">
+        <f t="shared" si="27"/>
+        <v>199</v>
+      </c>
+      <c r="H64" s="23">
+        <f t="shared" si="27"/>
+        <v>262</v>
+      </c>
+      <c r="I64" s="23">
+        <f t="shared" si="27"/>
+        <v>381</v>
+      </c>
+      <c r="J64" s="23">
+        <f t="shared" si="27"/>
+        <v>1098</v>
+      </c>
+      <c r="K64" s="23">
+        <f t="shared" si="27"/>
+        <v>1174</v>
+      </c>
+      <c r="L64" s="23">
+        <f t="shared" si="27"/>
+        <v>1544</v>
+      </c>
+      <c r="M64" s="23">
+        <f t="shared" si="27"/>
+        <v>1508</v>
+      </c>
+      <c r="N64" s="12">
+        <f t="shared" ref="N64:R64" si="28">N$24*N65</f>
+        <v>5240.2522089164058</v>
+      </c>
+      <c r="O64" s="12">
+        <f t="shared" si="28"/>
+        <v>7336.3530924829665</v>
+      </c>
+      <c r="P64" s="12">
+        <f t="shared" si="28"/>
+        <v>9537.259020227857</v>
+      </c>
+      <c r="Q64" s="12">
+        <f t="shared" si="28"/>
+        <v>11921.573775284822</v>
+      </c>
+      <c r="R64" s="12">
+        <f t="shared" si="28"/>
+        <v>14901.967219106027</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>13</v>
+        <v>1276</v>
       </c>
       <c r="E65" s="7">
         <f>E64/E$24</f>
-        <v>1.716566866267465E-2</v>
+        <v>3.932135728542914E-2</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" ref="F65" si="27">F64/F$24</f>
-        <v>2.5470332850940667E-2</v>
+        <f t="shared" ref="F65:M65" si="29">F64/F$24</f>
+        <v>2.7062228654124457E-2</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" ref="G65" si="28">G64/G$24</f>
-        <v>6.1045913115091617E-2</v>
+        <f t="shared" si="29"/>
+        <v>2.0485896644018942E-2</v>
       </c>
       <c r="H65" s="7">
-        <f t="shared" ref="H65" si="29">H64/H$24</f>
-        <v>5.1212017753499491E-2</v>
+        <f t="shared" si="29"/>
+        <v>2.2362581085694777E-2</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" ref="I65" si="30">I64/I$24</f>
-        <v>4.478842278805642E-2</v>
+        <f>I64/I$24</f>
+        <v>3.4896501190694269E-2</v>
       </c>
       <c r="J65" s="7">
-        <f>J64/J$24</f>
-        <v>6.7646176911544231E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.5847076461769113E-2</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" ref="K65" si="31">K64/K$24</f>
-        <v>3.6263654603552055E-2</v>
+        <f t="shared" si="29"/>
+        <v>4.362042059894479E-2</v>
       </c>
       <c r="L65" s="7">
-        <f t="shared" ref="L65" si="32">L64/L$24</f>
-        <v>6.7954326388373995E-2</v>
+        <f t="shared" si="29"/>
+        <v>5.7240305479350488E-2</v>
       </c>
       <c r="M65" s="7">
-        <f t="shared" ref="M65:N65" si="33">M64/M$24</f>
-        <v>1.7547027346442992E-2</v>
-      </c>
-      <c r="N65" s="40">
-        <f t="shared" si="33"/>
-        <v>1.6224369729023653E-2</v>
-      </c>
-      <c r="O65" s="40">
-        <v>0.02</v>
-      </c>
-      <c r="P65" s="40">
-        <v>0.02</v>
-      </c>
-      <c r="Q65" s="40">
-        <v>0.02</v>
-      </c>
-      <c r="R65" s="40">
-        <v>0.02</v>
+        <f t="shared" si="29"/>
+        <v>2.4752962804898065E-2</v>
+      </c>
+      <c r="N65" s="22">
+        <f>AVERAGE($I65:$M65)</f>
+        <v>4.5271453307131344E-2</v>
+      </c>
+      <c r="O65" s="22">
+        <f t="shared" ref="O65:R65" si="30">AVERAGE($I65:$M65)</f>
+        <v>4.5271453307131344E-2</v>
+      </c>
+      <c r="P65" s="22">
+        <f t="shared" si="30"/>
+        <v>4.5271453307131344E-2</v>
+      </c>
+      <c r="Q65" s="22">
+        <f t="shared" si="30"/>
+        <v>4.5271453307131344E-2</v>
+      </c>
+      <c r="R65" s="22">
+        <f t="shared" si="30"/>
+        <v>4.5271453307131344E-2</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E67" s="41">
+        <v>12</v>
+      </c>
+      <c r="E67" s="23">
         <f>E37</f>
-        <v>51</v>
-      </c>
-      <c r="F67" s="41">
-        <f t="shared" ref="F67:M67" si="34">F37</f>
-        <v>679</v>
-      </c>
-      <c r="G67" s="41">
-        <f t="shared" si="34"/>
-        <v>-185</v>
-      </c>
-      <c r="H67" s="41">
-        <f t="shared" si="34"/>
-        <v>857</v>
-      </c>
-      <c r="I67" s="41">
-        <f t="shared" si="34"/>
-        <v>-717</v>
-      </c>
-      <c r="J67" s="41">
-        <f t="shared" si="34"/>
-        <v>703</v>
-      </c>
-      <c r="K67" s="41">
-        <f t="shared" si="34"/>
-        <v>3363</v>
-      </c>
-      <c r="L67" s="41">
-        <f t="shared" si="34"/>
-        <v>2207</v>
-      </c>
-      <c r="M67" s="41">
-        <f t="shared" si="34"/>
-        <v>3722</v>
-      </c>
-      <c r="N67" s="13">
-        <f>N$24*N68</f>
-        <v>4630.0719999999992</v>
-      </c>
-      <c r="O67" s="13">
-        <f t="shared" ref="O67" si="35">O$24*O68</f>
-        <v>6482.1007999999983</v>
-      </c>
-      <c r="P67" s="13">
-        <f t="shared" ref="P67" si="36">P$24*P68</f>
-        <v>8426.7310399999988</v>
-      </c>
-      <c r="Q67" s="13">
-        <f t="shared" ref="Q67" si="37">Q$24*Q68</f>
-        <v>10533.413799999998</v>
-      </c>
-      <c r="R67" s="13">
-        <f t="shared" ref="R67" si="38">R$24*R68</f>
-        <v>13166.767249999999</v>
+        <v>86</v>
+      </c>
+      <c r="F67" s="23">
+        <f t="shared" ref="F67:M67" si="31">F37</f>
+        <v>176</v>
+      </c>
+      <c r="G67" s="23">
+        <f t="shared" si="31"/>
+        <v>593</v>
+      </c>
+      <c r="H67" s="23">
+        <f t="shared" si="31"/>
+        <v>600</v>
+      </c>
+      <c r="I67" s="23">
+        <f t="shared" si="31"/>
+        <v>489</v>
+      </c>
+      <c r="J67" s="23">
+        <f t="shared" si="31"/>
+        <v>1128</v>
+      </c>
+      <c r="K67" s="23">
+        <f t="shared" si="31"/>
+        <v>976</v>
+      </c>
+      <c r="L67" s="23">
+        <f t="shared" si="31"/>
+        <v>1833</v>
+      </c>
+      <c r="M67" s="23">
+        <f t="shared" si="31"/>
+        <v>1069</v>
+      </c>
+      <c r="N67" s="12">
+        <v>1878</v>
+      </c>
+      <c r="O67" s="12">
+        <f t="shared" ref="O67" si="32">O$24*O68</f>
+        <v>7590.5273331130475</v>
+      </c>
+      <c r="P67" s="12">
+        <f t="shared" ref="P67" si="33">P$24*P68</f>
+        <v>9867.6855330469625</v>
+      </c>
+      <c r="Q67" s="12">
+        <f t="shared" ref="Q67" si="34">Q$24*Q68</f>
+        <v>12334.606916308703</v>
+      </c>
+      <c r="R67" s="12">
+        <f t="shared" ref="R67" si="35">R$24*R68</f>
+        <v>15418.25864538588</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E68" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="F68" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="G68" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="H68" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="I68" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="J68" s="19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K68" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="L68" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="M68" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="N68" s="40">
-        <v>0.04</v>
-      </c>
-      <c r="O68" s="40">
-        <v>0.04</v>
-      </c>
-      <c r="P68" s="40">
-        <v>0.04</v>
-      </c>
-      <c r="Q68" s="40">
-        <v>0.04</v>
-      </c>
-      <c r="R68" s="40">
-        <v>0.04</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E68" s="7">
+        <f>E67/E$24</f>
+        <v>1.716566866267465E-2</v>
+      </c>
+      <c r="F68" s="7">
+        <f t="shared" ref="F68" si="36">F67/F$24</f>
+        <v>2.5470332850940667E-2</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" ref="G68" si="37">G67/G$24</f>
+        <v>6.1045913115091617E-2</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" ref="H68" si="38">H67/H$24</f>
+        <v>5.1212017753499491E-2</v>
+      </c>
+      <c r="I68" s="7">
+        <f>I67/I$24</f>
+        <v>4.478842278805642E-2</v>
+      </c>
+      <c r="J68" s="7">
+        <f>J67/J$24</f>
+        <v>6.7646176911544231E-2</v>
+      </c>
+      <c r="K68" s="7">
+        <f t="shared" ref="K68" si="39">K67/K$24</f>
+        <v>3.6263654603552055E-2</v>
+      </c>
+      <c r="L68" s="7">
+        <f>L67/L$24</f>
+        <v>6.7954326388373995E-2</v>
+      </c>
+      <c r="M68" s="7">
+        <f t="shared" ref="M68" si="40">M67/M$24</f>
+        <v>1.7547027346442992E-2</v>
+      </c>
+      <c r="N68" s="22">
+        <f>AVERAGE($I68:$M68)</f>
+        <v>4.683992160759394E-2</v>
+      </c>
+      <c r="O68" s="22">
+        <f t="shared" ref="O68:R68" si="41">AVERAGE($I68:$M68)</f>
+        <v>4.683992160759394E-2</v>
+      </c>
+      <c r="P68" s="22">
+        <f t="shared" si="41"/>
+        <v>4.683992160759394E-2</v>
+      </c>
+      <c r="Q68" s="22">
+        <f t="shared" si="41"/>
+        <v>4.683992160759394E-2</v>
+      </c>
+      <c r="R68" s="22">
+        <f t="shared" si="41"/>
+        <v>4.683992160759394E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="20" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
+      <c r="B70" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E70" s="23">
+        <f>E40</f>
+        <v>51</v>
+      </c>
+      <c r="F70" s="23">
+        <f t="shared" ref="F70:M70" si="42">F40</f>
+        <v>679</v>
+      </c>
+      <c r="G70" s="23">
+        <f t="shared" si="42"/>
+        <v>-185</v>
+      </c>
+      <c r="H70" s="23">
+        <f t="shared" si="42"/>
+        <v>857</v>
+      </c>
+      <c r="I70" s="23">
+        <f t="shared" si="42"/>
+        <v>-717</v>
+      </c>
+      <c r="J70" s="23">
+        <f t="shared" si="42"/>
+        <v>703</v>
+      </c>
+      <c r="K70" s="23">
+        <f t="shared" si="42"/>
+        <v>3363</v>
+      </c>
+      <c r="L70" s="23">
+        <f t="shared" si="42"/>
+        <v>2207</v>
+      </c>
+      <c r="M70" s="23">
+        <f t="shared" si="42"/>
+        <v>3722</v>
+      </c>
+      <c r="N70" s="12">
+        <f>N$24*N71</f>
+        <v>5656.9097399453585</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" ref="O70" si="43">O$24*O71</f>
+        <v>7919.673635923501</v>
+      </c>
+      <c r="P70" s="12">
+        <f t="shared" ref="P70" si="44">P$24*P71</f>
+        <v>10295.575726700552</v>
+      </c>
+      <c r="Q70" s="12">
+        <f t="shared" ref="Q70" si="45">Q$24*Q71</f>
+        <v>12869.46965837569</v>
+      </c>
+      <c r="R70" s="12">
+        <f t="shared" ref="R70" si="46">R$24*R71</f>
+        <v>16086.837072969614</v>
+      </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="22" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="23"/>
+      <c r="B71" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E71" s="17">
+        <f>E70/E47</f>
+        <v>1.0179640718562874E-2</v>
+      </c>
+      <c r="F71" s="17">
+        <f t="shared" ref="F71:M71" si="47">F70/F47</f>
+        <v>9.8263386396526778E-2</v>
+      </c>
+      <c r="G71" s="17">
+        <f t="shared" si="47"/>
+        <v>-1.9044677784640723E-2</v>
+      </c>
+      <c r="H71" s="17">
+        <f t="shared" si="47"/>
+        <v>7.3147832024581763E-2</v>
+      </c>
+      <c r="I71" s="17">
+        <f t="shared" si="47"/>
+        <v>-6.5671368382487633E-2</v>
+      </c>
+      <c r="J71" s="17">
+        <f t="shared" si="47"/>
+        <v>4.2158920539730138E-2</v>
+      </c>
+      <c r="K71" s="17">
+        <f t="shared" si="47"/>
+        <v>0.12495355577023111</v>
+      </c>
+      <c r="L71" s="17">
+        <f t="shared" si="47"/>
+        <v>8.181952991769853E-2</v>
+      </c>
+      <c r="M71" s="17">
+        <f t="shared" si="47"/>
+        <v>6.1094514296969896E-2</v>
+      </c>
+      <c r="N71" s="22">
+        <f>AVERAGE($I71:$M71)</f>
+        <v>4.8871030428428407E-2</v>
+      </c>
+      <c r="O71" s="22">
+        <f t="shared" ref="O71:R71" si="48">AVERAGE($I71:$M71)</f>
+        <v>4.8871030428428407E-2</v>
+      </c>
+      <c r="P71" s="22">
+        <f t="shared" si="48"/>
+        <v>4.8871030428428407E-2</v>
+      </c>
+      <c r="Q71" s="22">
+        <f t="shared" si="48"/>
+        <v>4.8871030428428407E-2</v>
+      </c>
+      <c r="R71" s="22">
+        <f t="shared" si="48"/>
+        <v>4.8871030428428407E-2</v>
+      </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>1285</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>2</v>
-      </c>
-      <c r="P73">
-        <v>3</v>
-      </c>
-      <c r="Q73">
-        <v>4</v>
-      </c>
-      <c r="R73">
-        <v>5</v>
+      <c r="B73" s="18" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="34">
+        <f ca="1">N62+N64-N67-N70</f>
+        <v>74232.511672306297</v>
+      </c>
+      <c r="O73" s="34">
+        <f t="shared" ref="O73:R73" ca="1" si="49">O62+O64-O67-O70</f>
+        <v>119836.97440832542</v>
+      </c>
+      <c r="P73" s="34">
+        <f t="shared" ca="1" si="49"/>
+        <v>173362.35249525844</v>
+      </c>
+      <c r="Q73" s="34">
+        <f t="shared" ca="1" si="49"/>
+        <v>223002.12692158323</v>
+      </c>
+      <c r="R73" s="34">
+        <f t="shared" ca="1" si="49"/>
+        <v>263336.0243173092</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>1286</v>
+      <c r="B74" s="20" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="50">
+        <f ca="1">N73/(1+wacc)^N45</f>
+        <v>68733.807103987303</v>
+      </c>
+      <c r="O74" s="50">
+        <f ca="1">O73/(1+wacc)^O45</f>
+        <v>102740.8902677687</v>
+      </c>
+      <c r="P74" s="50">
+        <f ca="1">P73/(1+wacc)^P45</f>
+        <v>137620.62478983961</v>
+      </c>
+      <c r="Q74" s="50">
+        <f ca="1">Q73/(1+wacc)^Q45</f>
+        <v>163913.2205244673</v>
+      </c>
+      <c r="R74" s="50">
+        <f ca="1">R73/(1+wacc)^R45</f>
+        <v>179222.07332403242</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>1287</v>
+        <v>1281</v>
+      </c>
+      <c r="R76" s="14">
+        <f ca="1">(R73*(1+TGR)/(wacc-TGR))</f>
+        <v>4907625.9077316709</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>1288</v>
+        <v>1282</v>
+      </c>
+      <c r="R77" s="14">
+        <f ca="1">R76/(1+wacc)^R45</f>
+        <v>3340047.7301296946</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>1289</v>
+        <v>1283</v>
+      </c>
+      <c r="R78" s="14">
+        <f ca="1">SUM(N74:R74,R77)</f>
+        <v>3992278.34613979</v>
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>1290</v>
+        <v>1284</v>
+      </c>
+      <c r="R79" s="51">
+        <f>'Balance Sheet'!B4+'Balance Sheet'!B5</f>
+        <v>33264</v>
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+        <v>1285</v>
+      </c>
+      <c r="R80" s="51" t="str">
+        <f>'Balance Sheet'!B38</f>
+        <v>11,056</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>1292</v>
+        <v>1286</v>
+      </c>
+      <c r="R81" s="14">
+        <f ca="1">R78+R79-R80</f>
+        <v>4014486.34613979</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>1316</v>
+      </c>
+      <c r="R83" s="52">
+        <v>24848</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>1317</v>
+      </c>
+      <c r="R84">
+        <f ca="1">R81/R83</f>
+        <v>161.56174928122144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H14:H15 M14:M15 R14:R15" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC84AC3F-8C96-B446-AEB7-D6596641F75A}">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="36" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D4" s="48">
+        <v>2930000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D5" s="43">
+        <f>D4/(D4+D14)</f>
+        <v>0.99624080602341469</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D7" s="25">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D8" s="44">
+        <v>3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D9" s="43">
+        <f>AVERAGE(D7:D8)</f>
+        <v>3.7750000000000006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D10" s="45">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D11" s="26">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D12" s="37">
+        <f>D9+D10*(D11)</f>
+        <v>0.13014999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D14" s="46" t="str">
+        <f>'Balance Sheet'!B38</f>
+        <v>11,056</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D15" s="43">
+        <f>100%-D5</f>
+        <v>3.7591939765853066E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D16" s="43">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>1296</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D3" s="27">
-        <v>3.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D4" s="28">
-        <v>3.7400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="26"/>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D6" s="27">
-        <f>AVERAGE(D3:D4)</f>
-        <v>3.7750000000000006E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D7" s="29">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D8" s="30">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="31">
-        <f>D6+D7*(D8)</f>
-        <v>7.6800000000000007E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="26"/>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D11" s="32">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D12" s="33">
-        <v>3416000000000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D13" s="34">
-        <f>'[1]Balance Sheet'!B2</f>
-        <v>3449100000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D14" s="35">
-        <f>'[1]Balance Sheet'!B65</f>
-        <v>51463200000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="36">
-        <f>D12-D13+D14</f>
-        <v>3464014100000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="26"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="26" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D17" s="37">
-        <f>D14</f>
-        <v>51463200000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D18" s="38">
-        <v>4.5499999999999999E-2</v>
+      <c r="D17" s="38">
+        <f>Sheet1!M60</f>
+        <v>0.1199952687917677</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="26"/>
-      <c r="D19" s="29"/>
+      <c r="B19" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D19" s="39">
+        <f>D4+D14</f>
+        <v>2941056</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
+      <c r="D20" s="40"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>1265</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="39">
-        <f>(D15/(D15+D17))*D9+(D17/(D15+D17))*D18*(1-D11)</f>
-        <v>7.6241886738964301E-2</v>
-      </c>
+      <c r="D21" s="42">
+        <f>(D5*D12)+(D16*D15)*(1-D17)</f>
+        <v>0.12973848145334313</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6686,7 +7127,7 @@
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6925,34 +7366,34 @@
       <c r="R3" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="9">
         <v>4682</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="9">
         <v>5010</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="9">
         <v>6910</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="9">
         <v>9714</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="9">
         <v>11716</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="9">
         <v>10918</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="9">
         <v>16675</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="9">
         <v>26914</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="9">
         <v>26974</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="9">
         <v>60922</v>
       </c>
     </row>
@@ -7011,34 +7452,34 @@
       <c r="R4" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <v>2082</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="9">
         <v>2199</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="9">
         <v>2847</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="9">
         <v>3892</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="9">
         <v>4545</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="9">
         <v>4150</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="9">
         <v>6279</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="9">
         <v>9439</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="9">
         <v>11618</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="9">
         <v>16621</v>
       </c>
     </row>
@@ -7097,34 +7538,34 @@
       <c r="R5" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="9">
         <v>2599</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="9">
         <v>2811</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <v>4063</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>5822</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="9">
         <v>7171</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="9">
         <v>6768</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="9">
         <v>10396</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="9">
         <v>17475</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="9">
         <v>15356</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="9">
         <v>44301</v>
       </c>
     </row>
@@ -7183,34 +7624,34 @@
       <c r="R6" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="9">
         <v>1840</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="9">
         <v>2064</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>2129</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>2612</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="9">
         <v>3367</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="9">
         <v>3922</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="9">
         <v>5864</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="9">
         <v>7434</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="9">
         <v>11132</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="9">
         <v>11329</v>
       </c>
     </row>
@@ -7269,34 +7710,34 @@
       <c r="R7" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="9">
         <v>1360</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="9">
         <v>1331</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>1463</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>1797</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="9">
         <v>2376</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="9">
         <v>2829</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="9">
         <v>3924</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="9">
         <v>5268</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="9">
         <v>7339</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="9">
         <v>8675</v>
       </c>
     </row>
@@ -7355,34 +7796,34 @@
       <c r="R8" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="6">
         <v>480.8</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="6">
         <v>602</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="6">
         <v>663</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="6">
         <v>815</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="6">
         <v>991</v>
       </c>
-      <c r="X8" s="10">
+      <c r="X8" s="9">
         <v>1093</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="9">
         <v>1940</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="9">
         <v>2166</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="9">
         <v>2440</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="9">
         <v>2654</v>
       </c>
     </row>
@@ -7441,34 +7882,34 @@
       <c r="R9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="6">
         <v>0</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="6">
         <v>131</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="6">
         <v>3</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="6">
         <v>0</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="6">
         <v>0</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="6">
         <v>0</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="6">
         <v>0</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="6">
         <v>0</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="9">
         <v>1353</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7527,34 +7968,34 @@
       <c r="R10" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="6">
         <v>759</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="6">
         <v>747</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="9">
         <v>1934</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="9">
         <v>3210</v>
       </c>
-      <c r="W10" s="10">
+      <c r="W10" s="9">
         <v>3804</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="9">
         <v>2846</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="9">
         <v>4532</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="9">
         <v>10041</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AA10" s="9">
         <v>4224</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="9">
         <v>32972</v>
       </c>
     </row>
@@ -7613,34 +8054,34 @@
       <c r="R11" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="6">
         <v>-18.04</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="6">
         <v>-8</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="6">
         <v>-4</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="6">
         <v>8</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="6">
         <v>78</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="6">
         <v>126</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="6">
         <v>-127</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="6">
         <v>-207</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AA11" s="6">
         <v>5</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="6">
         <v>609</v>
       </c>
     </row>
@@ -7699,34 +8140,34 @@
       <c r="R12" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="6">
         <v>28.09</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="6">
         <v>39</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="6">
         <v>54</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="6">
         <v>69</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="6">
         <v>136</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="6">
         <v>178</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="6">
         <v>57</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="6">
         <v>29</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="6">
         <v>267</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="6">
         <v>866</v>
       </c>
     </row>
@@ -7785,34 +8226,34 @@
       <c r="R13" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="6">
         <v>46.13</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="6">
         <v>47</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="6">
         <v>58</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="6">
         <v>61</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W13" s="6">
         <v>58</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="6">
         <v>52</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="Y13" s="6">
         <v>184</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z13" s="6">
         <v>236</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AA13" s="6">
         <v>262</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="6">
         <v>257</v>
       </c>
     </row>
@@ -7871,34 +8312,34 @@
       <c r="R14" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="6">
         <v>13.89</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="6">
         <v>4</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="6">
         <v>-25</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="6">
         <v>-22</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="6">
         <v>14</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="6">
         <v>-2</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="6">
         <v>4</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="6">
         <v>107</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="6">
         <v>-48</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="6">
         <v>237</v>
       </c>
     </row>
@@ -7957,34 +8398,34 @@
       <c r="R15" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="6">
         <v>754.8</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="6">
         <v>743</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="9">
         <v>1905</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V15" s="9">
         <v>3196</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="9">
         <v>3896</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="9">
         <v>2970</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="9">
         <v>4409</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="9">
         <v>9941</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AA15" s="9">
         <v>4181</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AB15" s="9">
         <v>33818</v>
       </c>
     </row>
@@ -8043,34 +8484,34 @@
       <c r="R16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="6">
         <v>124.2</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="6">
         <v>129</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="6">
         <v>239</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="6">
         <v>149</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="6">
         <v>-245</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="6">
         <v>174</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="6">
         <v>77</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="6">
         <v>189</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="6">
         <v>-187</v>
       </c>
-      <c r="AB16" s="10">
+      <c r="AB16" s="9">
         <v>4058</v>
       </c>
     </row>
@@ -8129,34 +8570,34 @@
       <c r="R17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="6">
         <v>0</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="6">
         <v>0</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="6">
         <v>0</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="6">
         <v>0</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="6">
         <v>0</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="6">
         <v>0</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="6">
         <v>0</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="6">
         <v>0</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="6">
         <v>0</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8215,34 +8656,34 @@
       <c r="R18" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="6">
         <v>630.6</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="6">
         <v>614</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="9">
         <v>1666</v>
       </c>
-      <c r="V18" s="10">
+      <c r="V18" s="9">
         <v>3047</v>
       </c>
-      <c r="W18" s="10">
+      <c r="W18" s="9">
         <v>4141</v>
       </c>
-      <c r="X18" s="10">
+      <c r="X18" s="9">
         <v>2796</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Y18" s="9">
         <v>4332</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="9">
         <v>9752</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AA18" s="9">
         <v>4368</v>
       </c>
-      <c r="AB18" s="10">
+      <c r="AB18" s="9">
         <v>29760</v>
       </c>
     </row>
@@ -8301,34 +8742,34 @@
       <c r="R19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="6">
         <v>220.1</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="6">
         <v>197</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="6">
         <v>187</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="6">
         <v>199</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="6">
         <v>262</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="6">
         <v>381</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="9">
         <v>1098</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="9">
         <v>1174</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="9">
         <v>1544</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="9">
         <v>1508</v>
       </c>
     </row>
@@ -8387,34 +8828,34 @@
       <c r="R20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="6">
         <v>979.1</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="6">
         <v>944</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="9">
         <v>2121</v>
       </c>
-      <c r="V20" s="10">
+      <c r="V20" s="9">
         <v>3409</v>
       </c>
-      <c r="W20" s="10">
+      <c r="W20" s="9">
         <v>4066</v>
       </c>
-      <c r="X20" s="10">
+      <c r="X20" s="9">
         <v>3227</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Y20" s="9">
         <v>5630</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="Z20" s="9">
         <v>11215</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AA20" s="9">
         <v>5768</v>
       </c>
-      <c r="AB20" s="10">
+      <c r="AB20" s="9">
         <v>34480</v>
       </c>
     </row>
@@ -8473,34 +8914,34 @@
       <c r="R21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="6">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="6">
         <v>0.13</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="6">
         <v>0.17</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="6">
         <v>0.12</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="6">
         <v>0.18</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="6">
         <v>0.39</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="6">
         <v>0.18</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="6">
         <v>1.21</v>
       </c>
     </row>
@@ -8559,34 +9000,34 @@
       <c r="R22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="6">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="6">
         <v>0.12</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="6">
         <v>0.17</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="6">
         <v>0.11</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="6">
         <v>0.17</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22" s="6">
         <v>0.39</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="6">
         <v>0.17</v>
       </c>
-      <c r="AB22" s="9">
+      <c r="AB22" s="6">
         <v>1.19</v>
       </c>
     </row>
@@ -8645,34 +9086,34 @@
       <c r="R23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="9">
         <v>22093</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="9">
         <v>21720</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="9">
         <v>21640</v>
       </c>
-      <c r="V23" s="10">
+      <c r="V23" s="9">
         <v>23960</v>
       </c>
-      <c r="W23" s="10">
+      <c r="W23" s="9">
         <v>24320</v>
       </c>
-      <c r="X23" s="10">
+      <c r="X23" s="9">
         <v>24360</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="9">
         <v>24680</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="9">
         <v>24960</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AA23" s="9">
         <v>24870</v>
       </c>
-      <c r="AB23" s="10">
+      <c r="AB23" s="9">
         <v>24690</v>
       </c>
     </row>
@@ -8731,34 +9172,34 @@
       <c r="R24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S24" s="10">
+      <c r="S24" s="9">
         <v>22523</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T24" s="9">
         <v>22760</v>
       </c>
-      <c r="U24" s="10">
+      <c r="U24" s="9">
         <v>25960</v>
       </c>
-      <c r="V24" s="10">
+      <c r="V24" s="9">
         <v>25280</v>
       </c>
-      <c r="W24" s="10">
+      <c r="W24" s="9">
         <v>25000</v>
       </c>
-      <c r="X24" s="10">
+      <c r="X24" s="9">
         <v>24720</v>
       </c>
-      <c r="Y24" s="10">
+      <c r="Y24" s="9">
         <v>25120</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="Z24" s="9">
         <v>25350</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AA24" s="9">
         <v>25070</v>
       </c>
-      <c r="AB24" s="10">
+      <c r="AB24" s="9">
         <v>24940</v>
       </c>
     </row>
@@ -8778,13 +9219,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83958F25-49DD-4C4E-8E27-484D7D074E69}">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection sqref="A1:AA1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="11.1640625" style="5" customWidth="1"/>
+    <col min="1" max="27" width="31.5" style="5" customWidth="1"/>
     <col min="28" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
@@ -12227,82 +12668,82 @@
       <c r="B3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>38.1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>99.94</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>176.9</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>90.8</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>74.42</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>100.4</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <v>302.60000000000002</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="6">
         <v>448.8</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <v>797.6</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="6">
         <v>-30.04</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="6">
         <v>-67.989999999999995</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="6">
         <v>253.1</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="6">
         <v>581.1</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="6">
         <v>562.5</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="6">
         <v>440</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="6">
         <v>630.6</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="6">
         <v>614</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="9">
         <v>1666</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="9">
         <v>3047</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="9">
         <v>4141</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="9">
         <v>2796</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="9">
         <v>4332</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="9">
         <v>9752</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="9">
         <v>4368</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="9">
         <v>29760</v>
       </c>
     </row>
@@ -12313,82 +12754,82 @@
       <c r="B4" s="6" t="s">
         <v>1211</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>-1.9</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>15.9</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>67.91</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>160.80000000000001</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>265</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>49.68</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>132.19999999999999</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="6">
         <v>446.4</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="6">
         <v>587.1</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>1270</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="6">
         <v>249.4</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="6">
         <v>487.8</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="6">
         <v>675.8</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="6">
         <v>909.2</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="6">
         <v>824.2</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="6">
         <v>835.1</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="6">
         <v>905.7</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="9">
         <v>1175</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="9">
         <v>1672</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="9">
         <v>3502</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="9">
         <v>3743</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="9">
         <v>4761</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="9">
         <v>5822</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="9">
         <v>9108</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="9">
         <v>5641</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="9">
         <v>28090</v>
       </c>
     </row>
@@ -12399,82 +12840,82 @@
       <c r="B5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>6.5</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>15.84</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>43.5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>58.22</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>82.69</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>102.6</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <v>97.98</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <v>107.6</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>133.19999999999999</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <v>185</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="6">
         <v>196.7</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="6">
         <v>187</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="6">
         <v>204.2</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="6">
         <v>226.2</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="6">
         <v>239.1</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="6">
         <v>220.1</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="6">
         <v>197</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="6">
         <v>187</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="6">
         <v>199</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="6">
         <v>262</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="6">
         <v>381</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="9">
         <v>1098</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="9">
         <v>1174</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="9">
         <v>1544</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="9">
         <v>1508</v>
       </c>
     </row>
@@ -12485,82 +12926,82 @@
       <c r="B6" s="6" t="s">
         <v>1258</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>-27.2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>-51.91</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>29.77</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>55.14</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>12.14</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <v>-10.62</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <v>41.77</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="6">
         <v>89.52</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <v>-23.28</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="6">
         <v>-21.15</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="6">
         <v>-2.6459999999999999</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="6">
         <v>19.059999999999999</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="6">
         <v>31.86</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="6">
         <v>15.43</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="6">
         <v>82.57</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="6">
         <v>134</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="6">
         <v>197</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="6">
         <v>-359</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="6">
         <v>-315</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="6">
         <v>18</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="6">
         <v>-282</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="6">
         <v>-406</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="9">
         <v>-2164</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="9">
         <v>-2489</v>
       </c>
     </row>
@@ -12571,82 +13012,82 @@
       <c r="B7" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>0.36399999999999999</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>-0.156</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>0.67200000000000004</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <v>1.0960000000000001</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="6">
         <v>116.7</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="6">
         <v>162.69999999999999</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="6">
         <v>242.8</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="6">
         <v>100.4</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="6">
         <v>136.4</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="6">
         <v>136.69999999999999</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="6">
         <v>136.30000000000001</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="6">
         <v>157.80000000000001</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="6">
         <v>204</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="6">
         <v>247</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="6">
         <v>391</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="6">
         <v>557</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="6">
         <v>844</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="9">
         <v>1397</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="9">
         <v>2004</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="9">
         <v>2710</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="9">
         <v>3549</v>
       </c>
     </row>
@@ -12657,82 +13098,82 @@
       <c r="B8" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>0.1</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>10.6</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>64.11</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>90.38</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>51</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>17.53</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>11.55</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <v>35.24</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <v>5.0839999999999996</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="6">
         <v>76.33</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="6">
         <v>-11.72</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="6">
         <v>1.036</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="6">
         <v>-13.74</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="6">
         <v>-33.700000000000003</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="6">
         <v>-20.8</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="6">
         <v>-7.9539999999999997</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="6">
         <v>17.059999999999999</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="6">
         <v>77</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="6">
         <v>54</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="6">
         <v>39</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="6">
         <v>-45</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="6">
         <v>5</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="6">
         <v>-20</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="6">
         <v>-53</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="9">
         <v>1391</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="6">
         <v>-516</v>
       </c>
     </row>
@@ -12743,82 +13184,82 @@
       <c r="B9" s="6" t="s">
         <v>1252</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>-12.6</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>-42.5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>-84.78</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>-98.44</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>35.4</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>-180.8</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>-95.11</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <v>20.13</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6">
         <v>-132.9</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="6">
         <v>169.9</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="6">
         <v>-33.33</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="6">
         <v>136.4</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="6">
         <v>151.69999999999999</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="6">
         <v>2.149</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="6">
         <v>-112.3</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="6">
         <v>12.24</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="6">
         <v>-202.5</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="6">
         <v>-51</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="6">
         <v>-679</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="6">
         <v>185</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="6">
         <v>-857</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="6">
         <v>717</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="6">
         <v>-703</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="9">
         <v>-3363</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="9">
         <v>-2207</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="9">
         <v>-3722</v>
       </c>
     </row>
@@ -12829,82 +13270,82 @@
       <c r="B10" s="6" t="s">
         <v>1250</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>-43.81</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>-9.07</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>-41.36</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>-88.22</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="6">
         <v>-21.41</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="6">
         <v>-175.3</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="6">
         <v>0</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="6">
         <v>348.9</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="6">
         <v>-56.74</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="6">
         <v>26.34</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="6">
         <v>26.24</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="6">
         <v>-118.9</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="6">
         <v>28.85</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="6">
         <v>-49.32</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="6">
         <v>-32</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="6">
         <v>-321</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="6">
         <v>-440</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="6">
         <v>-149</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="6">
         <v>-233</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="6">
         <v>-550</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="9">
         <v>-2215</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="6">
         <v>822</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="9">
         <v>-6172</v>
       </c>
     </row>
@@ -12915,82 +13356,82 @@
       <c r="B11" s="6" t="s">
         <v>1249</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>-28.1</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>-9</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>-52.27</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>-123.5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>68.83</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>-85.13</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>-81.28</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <v>60.73</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="6">
         <v>-91.39</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="6">
         <v>-3.69</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="6">
         <v>-177.3</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="6">
         <v>204.7</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="6">
         <v>-14.13</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="6">
         <v>18.88</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="6">
         <v>-78.95</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="6">
         <v>24.65</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="6">
         <v>-94.98</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="6">
         <v>66</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="6">
         <v>-375</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="6">
         <v>-375</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="6">
         <v>-776</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="6">
         <v>597</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="6">
         <v>-524</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="6">
         <v>-774</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="9">
         <v>-2554</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="6">
         <v>-98</v>
       </c>
     </row>
@@ -13001,82 +13442,82 @@
       <c r="B12" s="6" t="s">
         <v>1248</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>-72.89</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>43.51</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>43.51</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <v>-58.83</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="6">
         <v>38.61</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="6">
         <v>-283.2</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="6">
         <v>119.4</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="6">
         <v>-69.790000000000006</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="6">
         <v>35.71</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="6">
         <v>10.89</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="6">
         <v>-20.38</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="6">
         <v>-26.89</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="6">
         <v>-11</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="6">
         <v>184</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="6">
         <v>90</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="6">
         <v>-135</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="6">
         <v>194</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="6">
         <v>363</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="6">
         <v>568</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="6">
         <v>-551</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AB12" s="9">
         <v>1531</v>
       </c>
     </row>
@@ -13087,82 +13528,82 @@
       <c r="B13" s="6" t="s">
         <v>1247</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>15.5</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>-33.5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>-32.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>-72.86</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>48.53</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>-97.79</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>30.89</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <v>39.65</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="6">
         <v>95.17</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="6">
         <v>173.6</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="6">
         <v>78.3</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="6">
         <v>-130.9</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="6">
         <v>209.3</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="6">
         <v>-78.680000000000007</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="6">
         <v>74.680000000000007</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="6">
         <v>-20.88</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="6">
         <v>-31.32</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="6">
         <v>-74</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="6">
         <v>-167</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="6">
         <v>910</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W13" s="6">
         <v>203</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="6">
         <v>159</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="Y13" s="6">
         <v>8</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z13" s="6">
         <v>-942</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AA13" s="6">
         <v>76</v>
       </c>
-      <c r="AB13" s="10">
+      <c r="AB13" s="9">
         <v>1017</v>
       </c>
     </row>
@@ -13173,82 +13614,82 @@
       <c r="B14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>0</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="6">
         <v>0</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="6">
         <v>0</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="6">
         <v>0</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="6">
         <v>0</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="6">
         <v>0</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="6">
         <v>0</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="6">
         <v>0</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="6">
         <v>0</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="6">
         <v>0</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="6">
         <v>0</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="6">
         <v>0</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="6">
         <v>0</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="6">
         <v>0</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="6">
         <v>0</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -13259,82 +13700,82 @@
       <c r="B15" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>-7.9</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>-11.6</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>-60.83</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>-601.20000000000005</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>-277.3</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>88.04</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="6">
         <v>-152</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="6">
         <v>-41.79</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="6">
         <v>-540.79999999999995</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="6">
         <v>-761.3</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="6">
         <v>-209.4</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="6">
         <v>-519.29999999999995</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="6">
         <v>-649.70000000000005</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="9">
         <v>-1143</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="6">
         <v>-744</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="6">
         <v>-805.9</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="6">
         <v>-727</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="6">
         <v>-400</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="6">
         <v>-793</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V15" s="9">
         <v>1278</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="9">
         <v>-4097</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="9">
         <v>6145</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="9">
         <v>-19675</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="9">
         <v>-9830</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AA15" s="9">
         <v>7375</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AB15" s="9">
         <v>-10566</v>
       </c>
     </row>
@@ -13345,82 +13786,82 @@
       <c r="B16" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>-7.9</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>-11.6</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>-36.33</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>-161.1</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>-63.12</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>-127.6</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="6">
         <v>-67.260000000000005</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="6">
         <v>-79.599999999999994</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="6">
         <v>-145.30000000000001</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <v>-187.7</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="6">
         <v>-407.7</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="6">
         <v>-77.599999999999994</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="6">
         <v>-97.89</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="6">
         <v>-138.69999999999999</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="6">
         <v>-183.3</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="6">
         <v>-255.2</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="6">
         <v>-122.4</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="6">
         <v>-86</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="6">
         <v>-176</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="6">
         <v>-593</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="6">
         <v>-600</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="6">
         <v>-489</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Y16" s="9">
         <v>-1128</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="6">
         <v>-976</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AA16" s="9">
         <v>-1833</v>
       </c>
-      <c r="AB16" s="10">
+      <c r="AB16" s="9">
         <v>-1069</v>
       </c>
     </row>
@@ -13431,82 +13872,82 @@
       <c r="B17" s="6" t="s">
         <v>1241</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>0</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>0</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>-3.9009999999999998</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>-71.3</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="6">
         <v>-71.3</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <v>-12.13</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="6">
         <v>-401.8</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="6">
         <v>-75.540000000000006</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="6">
         <v>-27.95</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="6">
         <v>0</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="6">
         <v>0</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="6">
         <v>-348.9</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="6">
         <v>0</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="6">
         <v>-17.14</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="6">
         <v>20.86</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="6">
         <v>7</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="6">
         <v>7</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="6">
         <v>2</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="6">
         <v>36</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="6">
         <v>9</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="9">
         <v>-8524</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="6">
         <v>-263</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="6">
         <v>-49</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="6">
         <v>-83</v>
       </c>
     </row>
@@ -13517,82 +13958,82 @@
       <c r="B18" s="6" t="s">
         <v>1239</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>0</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>-472.9</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>-639.5</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <v>-734.6</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="6">
         <v>-313.8</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="6">
         <v>-338.1</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="6">
         <v>-220.8</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <v>-1252</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <v>-1000</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <v>-1194</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <v>-1720</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="9">
         <v>-1965</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="9">
         <v>-2378</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="9">
         <v>-3065</v>
       </c>
-      <c r="S18" s="10">
+      <c r="S18" s="9">
         <v>-2862</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="9">
         <v>-3477</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="9">
         <v>-3134</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="6">
         <v>-72</v>
       </c>
-      <c r="W18" s="10">
+      <c r="W18" s="9">
         <v>-11157</v>
       </c>
-      <c r="X18" s="10">
+      <c r="X18" s="9">
         <v>-1475</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Y18" s="9">
         <v>-19342</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="9">
         <v>-24811</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AA18" s="9">
         <v>-11974</v>
       </c>
-      <c r="AB18" s="10">
+      <c r="AB18" s="9">
         <v>-18211</v>
       </c>
     </row>
@@ -13603,82 +14044,82 @@
       <c r="B19" s="6" t="s">
         <v>1237</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>0</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <v>15.32</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>422.2</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>1022</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <v>229.1</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="6">
         <v>397.7</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="6">
         <v>227.1</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="6">
         <v>753.8</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <v>1227</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="6">
         <v>752.4</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <v>1170</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="9">
         <v>1311</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="9">
         <v>1817</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="9">
         <v>2512</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="9">
         <v>2237</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="9">
         <v>3138</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="9">
         <v>2515</v>
       </c>
-      <c r="V19" s="10">
+      <c r="V19" s="9">
         <v>1941</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W19" s="9">
         <v>7660</v>
       </c>
-      <c r="X19" s="10">
+      <c r="X19" s="9">
         <v>8109</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="9">
         <v>9319</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="9">
         <v>16220</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="9">
         <v>21231</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="9">
         <v>9782</v>
       </c>
     </row>
@@ -13689,82 +14130,82 @@
       <c r="B20" s="6" t="s">
         <v>1235</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>-24.5</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>17.5</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>7</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="6">
         <v>0</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <v>71.3</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="6">
         <v>-9.6839999999999993</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="6">
         <v>-401.8</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="6">
         <v>0</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="6">
         <v>-0.442</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="6">
         <v>-0.218</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="6">
         <v>-2.1629999999999998</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="6">
         <v>-1.59</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="6">
         <v>0.35199999999999998</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="6">
         <v>19.829999999999998</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="6">
         <v>-0.5</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="6">
         <v>18</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="6">
         <v>-5</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="6">
         <v>2</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="6">
         <v>-36</v>
       </c>
-      <c r="X20" s="9">
+      <c r="X20" s="6">
         <v>-9</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="6">
         <v>-34</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="6">
         <v>-24</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="6">
         <v>-77</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="6">
         <v>-985</v>
       </c>
     </row>
@@ -13775,82 +14216,82 @@
       <c r="B21" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>52.1</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>7</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>605.6</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>99.09</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>26.29</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="6">
         <v>-270.3</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="6">
         <v>13.84</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="6">
         <v>-61.38</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="6">
         <v>-53.63</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="6">
         <v>-326.3</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="6">
         <v>-349.3</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="6">
         <v>61.06</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="6">
         <v>192</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="6">
         <v>236.7</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="6">
         <v>-15.27</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="6">
         <v>389.6</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="6">
         <v>-833.5</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="6">
         <v>-676</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="6">
         <v>291</v>
       </c>
-      <c r="V21" s="10">
+      <c r="V21" s="9">
         <v>-2544</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="9">
         <v>-2866</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="6">
         <v>-792</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="Y21" s="9">
         <v>3804</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="Z21" s="9">
         <v>1865</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AA21" s="9">
         <v>-11617</v>
       </c>
-      <c r="AB21" s="10">
+      <c r="AB21" s="9">
         <v>-13633</v>
       </c>
     </row>
@@ -13861,82 +14302,82 @@
       <c r="B22" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>0</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <v>0</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>0</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="6">
         <v>0</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="6">
         <v>0</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="6">
         <v>0</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="6">
         <v>0</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="6">
         <v>0</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="6">
         <v>0</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="6">
         <v>0</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="6">
         <v>-11.93</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="6">
         <v>-2.0489999999999999</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="6">
         <v>-2.2389999999999999</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="6">
         <v>-2.9169999999999998</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="6">
         <v>-3</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="6">
         <v>-673</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="6">
         <v>-812</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="6">
         <v>-16</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22" s="6">
         <v>-149</v>
       </c>
-      <c r="Y22" s="10">
+      <c r="Y22" s="9">
         <v>-4968</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="Z22" s="9">
         <v>-1000</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="6">
         <v>-355</v>
       </c>
-      <c r="AB22" s="10">
+      <c r="AB22" s="9">
         <v>-1250</v>
       </c>
     </row>
@@ -13947,82 +14388,82 @@
       <c r="B23" s="6" t="s">
         <v>1229</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>37.9</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="6">
         <v>13.4</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>116.6</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>90.38</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>25.49</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>37.76</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="6">
         <v>42.5</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="6">
         <v>128</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="6">
         <v>221.2</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="6">
         <v>226</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="6">
         <v>73.55</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="6">
         <v>138</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="6">
         <v>177.3</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="6">
         <v>195.9</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="6">
         <v>195.9</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="6">
         <v>64.94</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="6">
         <v>59.1</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="6">
         <v>154</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="9">
         <v>1979</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V23" s="6">
         <v>139</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="6">
         <v>137</v>
       </c>
-      <c r="X23" s="9">
+      <c r="X23" s="6">
         <v>149</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y23" s="6">
         <v>194</v>
       </c>
-      <c r="Z23" s="9">
+      <c r="Z23" s="6">
         <v>281</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA23" s="6">
         <v>355</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23" s="6">
         <v>403</v>
       </c>
     </row>
@@ -14033,82 +14474,82 @@
       <c r="B24" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <v>0</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <v>0</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="6">
         <v>-24.64</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="6">
         <v>-188.5</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="6">
         <v>-275</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="6">
         <v>-552.5</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="6">
         <v>-423.6</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="6">
         <v>0</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="6">
         <v>0</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="6">
         <v>0</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="6">
         <v>-100</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="6">
         <v>-887.3</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="6">
         <v>-813.6</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="6">
         <v>-587</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="6">
         <v>-739</v>
       </c>
-      <c r="V24" s="10">
+      <c r="V24" s="9">
         <v>-1521</v>
       </c>
-      <c r="W24" s="10">
+      <c r="W24" s="9">
         <v>-1579</v>
       </c>
-      <c r="X24" s="10">
+      <c r="X24" s="9">
         <v>-1579</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Y24" s="6">
         <v>-942</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="Z24" s="9">
         <v>-1904</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AA24" s="9">
         <v>-10039</v>
       </c>
-      <c r="AB24" s="10">
+      <c r="AB24" s="9">
         <v>-9533</v>
       </c>
     </row>
@@ -14119,82 +14560,82 @@
       <c r="B25" s="6" t="s">
         <v>1225</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>0</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="6">
         <v>0</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>0</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="6">
         <v>0</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>0</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="6">
         <v>0</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="6">
         <v>0</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="6">
         <v>0</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="6">
         <v>0</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="6">
         <v>0</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="6">
         <v>0</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="6">
         <v>0</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="6">
         <v>0</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="6">
         <v>-46.87</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="6">
         <v>-181.3</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="6">
         <v>-186.5</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="6">
         <v>-213</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="6">
         <v>-261</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="6">
         <v>-341</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="6">
         <v>-371</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X25" s="6">
         <v>-390</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="Y25" s="6">
         <v>-395</v>
       </c>
-      <c r="Z25" s="9">
+      <c r="Z25" s="6">
         <v>-399</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AA25" s="6">
         <v>-398</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AB25" s="6">
         <v>-395</v>
       </c>
     </row>
@@ -14205,82 +14646,82 @@
       <c r="B26" s="6" t="s">
         <v>1223</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>14.2</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>-6.4</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>489.1</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>8.7159999999999993</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>0.79900000000000004</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <v>-308</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <v>-4.0149999999999997</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="6">
         <v>-0.85599999999999998</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="6">
         <v>0.188</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="6">
         <v>0.22</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="6">
         <v>0.81499999999999995</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="6">
         <v>-76.97</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="6">
         <v>14.75</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="6">
         <v>52.79</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="6">
         <v>-62.21</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="9">
         <v>1396</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="6">
         <v>110.3</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="6">
         <v>-27</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="6">
         <v>-15</v>
       </c>
-      <c r="V26" s="9">
+      <c r="V26" s="6">
         <v>130</v>
       </c>
-      <c r="W26" s="10">
+      <c r="W26" s="9">
         <v>-1037</v>
       </c>
-      <c r="X26" s="10">
+      <c r="X26" s="9">
         <v>1177</v>
       </c>
-      <c r="Y26" s="10">
+      <c r="Y26" s="9">
         <v>9915</v>
       </c>
-      <c r="Z26" s="10">
+      <c r="Z26" s="9">
         <v>4887</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AA26" s="9">
         <v>-1180</v>
       </c>
-      <c r="AB26" s="10">
+      <c r="AB26" s="9">
         <v>-2858</v>
       </c>
     </row>
@@ -14291,82 +14732,82 @@
       <c r="B27" s="6" t="s">
         <v>1221</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="6">
         <v>0</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>0</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="6">
         <v>0</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <v>0</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="6">
         <v>0</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="6">
         <v>0</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="6">
         <v>0</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="6">
         <v>0</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="6">
         <v>0</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="6">
         <v>0</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="6">
         <v>0</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="6">
         <v>0</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="6">
         <v>0</v>
       </c>
-      <c r="R27" s="9">
+      <c r="R27" s="6">
         <v>0</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S27" s="6">
         <v>0</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="6">
         <v>0</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="6">
         <v>0</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="6">
         <v>0</v>
       </c>
-      <c r="W27" s="9">
+      <c r="W27" s="6">
         <v>0</v>
       </c>
-      <c r="X27" s="9">
+      <c r="X27" s="6">
         <v>0</v>
       </c>
-      <c r="Y27" s="9">
+      <c r="Y27" s="6">
         <v>0</v>
       </c>
-      <c r="Z27" s="9">
+      <c r="Z27" s="6">
         <v>0</v>
       </c>
-      <c r="AA27" s="9">
+      <c r="AA27" s="6">
         <v>0</v>
       </c>
-      <c r="AB27" s="9">
+      <c r="AB27" s="6">
         <v>0</v>
       </c>
     </row>
@@ -14377,82 +14818,82 @@
       <c r="B28" s="6" t="s">
         <v>1219</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>52.1</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="6">
         <v>11.3</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>612.70000000000005</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>-341.3</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>13.99</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="6">
         <v>-132.6</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="6">
         <v>-5.91</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="6">
         <v>343.2</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="6">
         <v>-7.3419999999999996</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="6">
         <v>182.6</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="6">
         <v>-309.3</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="6">
         <v>29.53</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="6">
         <v>218.1</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="6">
         <v>2.5150000000000001</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="6">
         <v>64.91</v>
       </c>
-      <c r="R28" s="9">
+      <c r="R28" s="6">
         <v>418.8</v>
       </c>
-      <c r="S28" s="9">
+      <c r="S28" s="6">
         <v>-654.9</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T28" s="6">
         <v>99</v>
       </c>
-      <c r="U28" s="10">
+      <c r="U28" s="9">
         <v>1170</v>
       </c>
-      <c r="V28" s="10">
+      <c r="V28" s="9">
         <v>2236</v>
       </c>
-      <c r="W28" s="10">
+      <c r="W28" s="9">
         <v>-3220</v>
       </c>
-      <c r="X28" s="10">
+      <c r="X28" s="9">
         <v>10114</v>
       </c>
-      <c r="Y28" s="10">
+      <c r="Y28" s="9">
         <v>-10049</v>
       </c>
-      <c r="Z28" s="10">
+      <c r="Z28" s="9">
         <v>1143</v>
       </c>
-      <c r="AA28" s="10">
+      <c r="AA28" s="9">
         <v>1399</v>
       </c>
-      <c r="AB28" s="10">
+      <c r="AB28" s="9">
         <v>3891</v>
       </c>
     </row>
@@ -14463,82 +14904,82 @@
       <c r="B29" s="6" t="s">
         <v>1217</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>8</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="6">
         <v>50.3</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>61.56</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>674.3</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>333</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="6">
         <v>347</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="6">
         <v>214.4</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="6">
         <v>208.5</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="6">
         <v>551.79999999999995</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="6">
         <v>544.4</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="6">
         <v>727</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="6">
         <v>417.7</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="6">
         <v>447.2</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="6">
         <v>665.4</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="6">
         <v>667.9</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R29" s="6">
         <v>732.8</v>
       </c>
-      <c r="S29" s="10">
+      <c r="S29" s="9">
         <v>1152</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T29" s="6">
         <v>497</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U29" s="6">
         <v>596</v>
       </c>
-      <c r="V29" s="10">
+      <c r="V29" s="9">
         <v>1766</v>
       </c>
-      <c r="W29" s="10">
+      <c r="W29" s="9">
         <v>4002</v>
       </c>
-      <c r="X29" s="9">
+      <c r="X29" s="6">
         <v>782</v>
       </c>
-      <c r="Y29" s="10">
+      <c r="Y29" s="9">
         <v>10896</v>
       </c>
-      <c r="Z29" s="9">
+      <c r="Z29" s="6">
         <v>847</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="AA29" s="9">
         <v>1990</v>
       </c>
-      <c r="AB29" s="10">
+      <c r="AB29" s="9">
         <v>3389</v>
       </c>
     </row>
@@ -14549,82 +14990,82 @@
       <c r="B30" s="6" t="s">
         <v>1215</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>60.1</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>61.6</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>674.3</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>333</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <v>347</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="6">
         <v>214.4</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="6">
         <v>208.5</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="6">
         <v>551.79999999999995</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="6">
         <v>544.4</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="6">
         <v>727</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="6">
         <v>417.7</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="6">
         <v>447.2</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="6">
         <v>665.4</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="6">
         <v>667.9</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="Q30" s="6">
         <v>732.8</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="9">
         <v>1152</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="6">
         <v>496.7</v>
       </c>
-      <c r="T30" s="9">
+      <c r="T30" s="6">
         <v>596</v>
       </c>
-      <c r="U30" s="10">
+      <c r="U30" s="9">
         <v>1766</v>
       </c>
-      <c r="V30" s="10">
+      <c r="V30" s="9">
         <v>4002</v>
       </c>
-      <c r="W30" s="9">
+      <c r="W30" s="6">
         <v>782</v>
       </c>
-      <c r="X30" s="10">
+      <c r="X30" s="9">
         <v>10896</v>
       </c>
-      <c r="Y30" s="9">
+      <c r="Y30" s="6">
         <v>847</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z30" s="9">
         <v>1990</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AA30" s="9">
         <v>3389</v>
       </c>
-      <c r="AB30" s="10">
+      <c r="AB30" s="9">
         <v>7280</v>
       </c>
     </row>
@@ -14635,82 +15076,82 @@
       <c r="B31" s="6" t="s">
         <v>1213</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="6">
         <v>4.3</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <v>31.58</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="6">
         <v>-0.26900000000000002</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="6">
         <v>201.9</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="6">
         <v>-77.930000000000007</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="6">
         <v>64.94</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="6">
         <v>366.8</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="6">
         <v>441.9</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <v>1082</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="6">
         <v>-158.30000000000001</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="6">
         <v>410.2</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="6">
         <v>577.9</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="6">
         <v>770.4</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="6">
         <v>640.9</v>
       </c>
-      <c r="R31" s="9">
+      <c r="R31" s="6">
         <v>580</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S31" s="6">
         <v>783.3</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T31" s="9">
         <v>1089</v>
       </c>
-      <c r="U31" s="10">
+      <c r="U31" s="9">
         <v>1496</v>
       </c>
-      <c r="V31" s="10">
+      <c r="V31" s="9">
         <v>2909</v>
       </c>
-      <c r="W31" s="10">
+      <c r="W31" s="9">
         <v>3143</v>
       </c>
-      <c r="X31" s="10">
+      <c r="X31" s="9">
         <v>4272</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="Y31" s="9">
         <v>4694</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="Z31" s="9">
         <v>8132</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AA31" s="9">
         <v>3808</v>
       </c>
-      <c r="AB31" s="10">
+      <c r="AB31" s="9">
         <v>27021</v>
       </c>
     </row>
@@ -14721,82 +15162,82 @@
       <c r="B32" s="6" t="s">
         <v>1211</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="6">
         <v>-1.9</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="6">
         <v>15.9</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="6">
         <v>67.91</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="6">
         <v>160.80000000000001</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="6">
         <v>265</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="6">
         <v>49.68</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="6">
         <v>132.19999999999999</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="6">
         <v>446.4</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="6">
         <v>587.1</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>1270</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="6">
         <v>249.4</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="6">
         <v>487.8</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="6">
         <v>675.8</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="6">
         <v>909.2</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="6">
         <v>824.2</v>
       </c>
-      <c r="R32" s="9">
+      <c r="R32" s="6">
         <v>835.1</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S32" s="6">
         <v>905.7</v>
       </c>
-      <c r="T32" s="10">
+      <c r="T32" s="9">
         <v>1175</v>
       </c>
-      <c r="U32" s="10">
+      <c r="U32" s="9">
         <v>1672</v>
       </c>
-      <c r="V32" s="10">
+      <c r="V32" s="9">
         <v>3502</v>
       </c>
-      <c r="W32" s="10">
+      <c r="W32" s="9">
         <v>3743</v>
       </c>
-      <c r="X32" s="10">
+      <c r="X32" s="9">
         <v>4761</v>
       </c>
-      <c r="Y32" s="10">
+      <c r="Y32" s="9">
         <v>5822</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="Z32" s="9">
         <v>9108</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AA32" s="9">
         <v>5641</v>
       </c>
-      <c r="AB32" s="10">
+      <c r="AB32" s="9">
         <v>28090</v>
       </c>
     </row>
@@ -14807,82 +15248,82 @@
       <c r="B33" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6">
         <v>-7.9</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="6">
         <v>-11.6</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="6">
         <v>-36.33</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="6">
         <v>-161.1</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="6">
         <v>-63.12</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="6">
         <v>-127.6</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="6">
         <v>-67.260000000000005</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="6">
         <v>-79.599999999999994</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="6">
         <v>-145.30000000000001</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="6">
         <v>-187.7</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="6">
         <v>-407.7</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="6">
         <v>-77.599999999999994</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="6">
         <v>-97.89</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="6">
         <v>-138.69999999999999</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="6">
         <v>-183.3</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33" s="6">
         <v>-255.2</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="6">
         <v>-122.4</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33" s="6">
         <v>-86</v>
       </c>
-      <c r="U33" s="9">
+      <c r="U33" s="6">
         <v>-176</v>
       </c>
-      <c r="V33" s="9">
+      <c r="V33" s="6">
         <v>-593</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W33" s="6">
         <v>-600</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X33" s="6">
         <v>-489</v>
       </c>
-      <c r="Y33" s="10">
+      <c r="Y33" s="9">
         <v>-1128</v>
       </c>
-      <c r="Z33" s="9">
+      <c r="Z33" s="6">
         <v>-976</v>
       </c>
-      <c r="AA33" s="10">
+      <c r="AA33" s="9">
         <v>-1833</v>
       </c>
-      <c r="AB33" s="10">
+      <c r="AB33" s="9">
         <v>-1069</v>
       </c>
     </row>

--- a/Excel/DCF NVDA 01.09.24.xlsx
+++ b/Excel/DCF NVDA 01.09.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Finance-Portfolio/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C64D15-DBDC-164B-AF1F-E2428B676075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D3F459-5DFB-AD46-B929-9F369D934458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19380" xr2:uid="{0DBC7CBB-1BA4-E74A-ACDB-390B09A12D21}"/>
+    <workbookView xWindow="0" yWindow="6900" windowWidth="38080" windowHeight="19380" xr2:uid="{0DBC7CBB-1BA4-E74A-ACDB-390B09A12D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4698,8 +4698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BE7BB4-D47D-1A46-AE97-BC46A7EBDBD5}">
   <dimension ref="B2:S84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
